--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_22.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1030759.164179419</v>
+        <v>1050739.429613132</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6605221.096453904</v>
+        <v>5562152.400446148</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5050599.152668069</v>
+        <v>4028287.523710872</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7556907.43259606</v>
+        <v>7990015.506086124</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
@@ -668,13 +670,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>21.1600751494776</v>
       </c>
       <c r="G2" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
@@ -722,10 +724,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>302.2833497265897</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.17612189871398</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
@@ -865,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +898,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>64.3867526429554</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>117.8614736218753</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>42.43741174507662</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
@@ -1117,10 +1119,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>120.5787518658549</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>29.22736829293074</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
@@ -1196,7 +1198,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1341,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059088</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>165.4216953850582</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1375,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
@@ -1382,7 +1384,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>362.8936521561746</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1421,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>4.702586979977263</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1430,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
@@ -1525,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>58.31207542495319</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
@@ -1591,7 +1593,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>115.4334238700262</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>16.55447303928995</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -1673,7 +1675,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1828,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>165.4216953850582</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1858,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>47.64512042712315</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,10 +1903,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>283.7777510779965</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -2002,7 +2004,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>168.1821651292104</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>119.5236191444601</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2059,7 +2061,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,10 +2095,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>269.9562877695847</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2242,16 +2244,16 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>153.0251390105127</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2296,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>54.68688746169129</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
@@ -2321,22 +2323,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>362.5761659788956</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>367.6236394854355</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2485,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>137.0591948939936</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>165.577887163712</v>
@@ -2494,7 +2496,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>136.1769805884533</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2564,16 +2566,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>282.1353944293379</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>92.80744320528898</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
@@ -2731,7 +2733,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>142.5359303380066</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2806,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256822</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,10 +2845,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>31.99018014062471</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>27.35334490128935</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>29.06736062834895</v>
       </c>
     </row>
     <row r="32">
@@ -3080,13 +3082,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>31.99018014062471</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>158.3449400448986</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3187,10 +3189,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>42.43741174507654</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3241,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>266.2723283900672</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
@@ -3269,7 +3271,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>351.2228221674562</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
@@ -3281,10 +3283,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>257.7677368882639</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>84.93140561848797</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3475,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U37" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3517,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,7 +3559,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>216.6467621941107</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3566,7 +3568,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>39.64108301376388</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>105.8745427447691</v>
       </c>
       <c r="F40" t="n">
-        <v>106.9706214097036</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3718,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
@@ -3749,13 +3751,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>220.7394045713949</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>338.1753487462616</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3901,22 +3903,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>92.54811727372233</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>58.8776823612798</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>346.4856642830676</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -3989,10 +3991,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>338.1753487462616</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4132,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>105.6900565596966</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4186,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>228.2601210751807</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2018.058580563342</v>
+        <v>1732.746750693538</v>
       </c>
       <c r="C2" t="n">
-        <v>2018.058580563342</v>
+        <v>1322.622160006808</v>
       </c>
       <c r="D2" t="n">
-        <v>1613.594650656403</v>
+        <v>918.1582300998689</v>
       </c>
       <c r="E2" t="n">
-        <v>1199.254435173299</v>
+        <v>503.8180146167656</v>
       </c>
       <c r="F2" t="n">
-        <v>778.224023126987</v>
+        <v>482.444201334465</v>
       </c>
       <c r="G2" t="n">
-        <v>369.4957390198192</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H2" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I2" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J2" t="n">
-        <v>297.5374940741699</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K2" t="n">
-        <v>835.6969951832094</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="L2" t="n">
-        <v>835.6969951832094</v>
+        <v>621.7910469133716</v>
       </c>
       <c r="M2" t="n">
-        <v>1560.714110571482</v>
+        <v>1398.109637905126</v>
       </c>
       <c r="N2" t="n">
-        <v>2285.731225959755</v>
+        <v>2151.290654543744</v>
       </c>
       <c r="O2" t="n">
-        <v>2929.36208237686</v>
+        <v>2794.921510960849</v>
       </c>
       <c r="P2" t="n">
-        <v>2929.36208237686</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q2" t="n">
-        <v>2929.36208237686</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R2" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S2" t="n">
-        <v>2929.36208237686</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T2" t="n">
-        <v>2707.155598323719</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U2" t="n">
-        <v>2707.155598323719</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="V2" t="n">
-        <v>2707.155598323719</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="W2" t="n">
-        <v>2323.395297458887</v>
+        <v>2944.548001240985</v>
       </c>
       <c r="X2" t="n">
-        <v>2018.058580563342</v>
+        <v>2543.904603409938</v>
       </c>
       <c r="Y2" t="n">
-        <v>2018.058580563342</v>
+        <v>2142.967930358028</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1561.703728412895</v>
+        <v>2318.137507400892</v>
       </c>
       <c r="C3" t="n">
-        <v>1427.70865716184</v>
+        <v>2184.142436149837</v>
       </c>
       <c r="D3" t="n">
-        <v>1310.811499381233</v>
+        <v>2067.24527836923</v>
       </c>
       <c r="E3" t="n">
-        <v>1190.318683373561</v>
+        <v>1946.752462361558</v>
       </c>
       <c r="F3" t="n">
-        <v>1081.358803556065</v>
+        <v>1837.792582544062</v>
       </c>
       <c r="G3" t="n">
-        <v>974.3686908704041</v>
+        <v>1730.802469858401</v>
       </c>
       <c r="H3" t="n">
-        <v>903.6214779061202</v>
+        <v>1660.055256894117</v>
       </c>
       <c r="I3" t="n">
-        <v>882.8728865263604</v>
+        <v>1639.306665514357</v>
       </c>
       <c r="J3" t="n">
-        <v>882.8728865263604</v>
+        <v>1832.11952307699</v>
       </c>
       <c r="K3" t="n">
-        <v>882.8728865263604</v>
+        <v>1832.11952307699</v>
       </c>
       <c r="L3" t="n">
-        <v>1313.854634658452</v>
+        <v>1832.11952307699</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.854634658452</v>
+        <v>1832.11952307699</v>
       </c>
       <c r="N3" t="n">
-        <v>1313.854634658452</v>
+        <v>2705.777615188608</v>
       </c>
       <c r="O3" t="n">
-        <v>2017.811725204347</v>
+        <v>2774.245504192344</v>
       </c>
       <c r="P3" t="n">
-        <v>2579.517617692877</v>
+        <v>3335.951396680874</v>
       </c>
       <c r="Q3" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R3" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S3" t="n">
-        <v>2821.372072491169</v>
+        <v>3577.805851479166</v>
       </c>
       <c r="T3" t="n">
-        <v>2662.030208678177</v>
+        <v>3418.463987666174</v>
       </c>
       <c r="U3" t="n">
-        <v>2464.679397816396</v>
+        <v>3221.113176804393</v>
       </c>
       <c r="V3" t="n">
-        <v>2250.96787080943</v>
+        <v>3007.401649797427</v>
       </c>
       <c r="W3" t="n">
-        <v>2037.734702545758</v>
+        <v>2794.168481533755</v>
       </c>
       <c r="X3" t="n">
-        <v>1861.408720684651</v>
+        <v>2617.842499672648</v>
       </c>
       <c r="Y3" t="n">
-        <v>1702.006761048481</v>
+        <v>2458.440540036478</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1147.921091948674</v>
+        <v>1163.049767528434</v>
       </c>
       <c r="C4" t="n">
-        <v>976.8277195103904</v>
+        <v>991.9563950901502</v>
       </c>
       <c r="D4" t="n">
-        <v>817.3330748333003</v>
+        <v>832.4617504130601</v>
       </c>
       <c r="E4" t="n">
-        <v>656.4222597016197</v>
+        <v>671.5509352813797</v>
       </c>
       <c r="F4" t="n">
-        <v>491.791133812211</v>
+        <v>506.9198093919709</v>
       </c>
       <c r="G4" t="n">
-        <v>324.5407427377544</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="H4" t="n">
-        <v>174.9332875432111</v>
+        <v>190.061963122971</v>
       </c>
       <c r="I4" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J4" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K4" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L4" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M4" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N4" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O4" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P4" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S4" t="n">
-        <v>1401.594370148297</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T4" t="n">
-        <v>1401.594370148297</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="U4" t="n">
-        <v>1401.594370148297</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="V4" t="n">
-        <v>1401.594370148297</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="W4" t="n">
-        <v>1401.594370148297</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="X4" t="n">
-        <v>1163.250508007981</v>
+        <v>1575.485172533713</v>
       </c>
       <c r="Y4" t="n">
-        <v>1163.250508007981</v>
+        <v>1350.749473922478</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1367.723277165894</v>
+        <v>2022.28143478352</v>
       </c>
       <c r="C5" t="n">
-        <v>1367.723277165894</v>
+        <v>1612.15684409679</v>
       </c>
       <c r="D5" t="n">
-        <v>1367.723277165894</v>
+        <v>1207.69291418985</v>
       </c>
       <c r="E5" t="n">
-        <v>953.3830616827906</v>
+        <v>793.352698706747</v>
       </c>
       <c r="F5" t="n">
-        <v>532.3526496364782</v>
+        <v>793.352698706747</v>
       </c>
       <c r="G5" t="n">
-        <v>123.6243655293104</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="H5" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J5" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K5" t="n">
-        <v>123.1055953709714</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L5" t="n">
-        <v>835.6969951832094</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M5" t="n">
-        <v>1560.714110571482</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N5" t="n">
-        <v>2285.731225959755</v>
+        <v>2853.966425778947</v>
       </c>
       <c r="O5" t="n">
-        <v>2929.36208237686</v>
+        <v>3497.597282196052</v>
       </c>
       <c r="P5" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q5" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R5" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S5" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T5" t="n">
-        <v>2929.36208237686</v>
+        <v>3566.743867807407</v>
       </c>
       <c r="U5" t="n">
-        <v>2929.36208237686</v>
+        <v>3566.743867807407</v>
       </c>
       <c r="V5" t="n">
-        <v>2579.524527713341</v>
+        <v>3216.906313143888</v>
       </c>
       <c r="W5" t="n">
-        <v>2579.524527713341</v>
+        <v>2833.146012279056</v>
       </c>
       <c r="X5" t="n">
-        <v>2178.881129882293</v>
+        <v>2432.502614448009</v>
       </c>
       <c r="Y5" t="n">
-        <v>1777.944456830383</v>
+        <v>2432.502614448009</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>737.4180835340717</v>
+        <v>2318.137507400892</v>
       </c>
       <c r="C6" t="n">
-        <v>603.4230122830173</v>
+        <v>2184.142436149837</v>
       </c>
       <c r="D6" t="n">
-        <v>486.5258545024097</v>
+        <v>2067.24527836923</v>
       </c>
       <c r="E6" t="n">
-        <v>366.0330384947378</v>
+        <v>1946.752462361558</v>
       </c>
       <c r="F6" t="n">
-        <v>257.0731586772423</v>
+        <v>1837.792582544062</v>
       </c>
       <c r="G6" t="n">
-        <v>150.083045991581</v>
+        <v>1730.802469858401</v>
       </c>
       <c r="H6" t="n">
-        <v>79.33583302729703</v>
+        <v>1660.055256894117</v>
       </c>
       <c r="I6" t="n">
-        <v>58.5872416475372</v>
+        <v>1639.306665514357</v>
       </c>
       <c r="J6" t="n">
-        <v>58.5872416475372</v>
+        <v>1639.306665514357</v>
       </c>
       <c r="K6" t="n">
-        <v>514.3934979128359</v>
+        <v>1639.306665514357</v>
       </c>
       <c r="L6" t="n">
-        <v>1175.481669832124</v>
+        <v>2281.11288818176</v>
       </c>
       <c r="M6" t="n">
-        <v>1755.231972814054</v>
+        <v>3124.089968876327</v>
       </c>
       <c r="N6" t="n">
-        <v>1755.231972814054</v>
+        <v>3124.089968876327</v>
       </c>
       <c r="O6" t="n">
-        <v>1755.231972814054</v>
+        <v>3124.089968876327</v>
       </c>
       <c r="P6" t="n">
-        <v>1755.231972814054</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q6" t="n">
-        <v>2105.076437498037</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R6" t="n">
-        <v>2105.076437498037</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S6" t="n">
-        <v>1997.086427612346</v>
+        <v>3577.805851479166</v>
       </c>
       <c r="T6" t="n">
-        <v>1837.744563799354</v>
+        <v>3418.463987666174</v>
       </c>
       <c r="U6" t="n">
-        <v>1640.393752937573</v>
+        <v>3221.113176804393</v>
       </c>
       <c r="V6" t="n">
-        <v>1426.682225930607</v>
+        <v>3007.401649797427</v>
       </c>
       <c r="W6" t="n">
-        <v>1213.449057666935</v>
+        <v>2794.168481533755</v>
       </c>
       <c r="X6" t="n">
-        <v>1037.123075805828</v>
+        <v>2617.842499672648</v>
       </c>
       <c r="Y6" t="n">
-        <v>877.7211161696583</v>
+        <v>2458.440540036478</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>101.4533141173116</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J7" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K7" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L7" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M7" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N7" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O7" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P7" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q7" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R7" t="n">
-        <v>1587.986138268387</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S7" t="n">
-        <v>1587.986138268387</v>
+        <v>1331.450327403457</v>
       </c>
       <c r="T7" t="n">
-        <v>1587.986138268387</v>
+        <v>1091.901588380159</v>
       </c>
       <c r="U7" t="n">
-        <v>1305.187990814512</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="V7" t="n">
-        <v>1031.302245754033</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="W7" t="n">
-        <v>752.2325812629078</v>
+        <v>256.1480313746799</v>
       </c>
       <c r="X7" t="n">
-        <v>513.8887191225913</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="Y7" t="n">
-        <v>289.153020511356</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>905.6326735593416</v>
+        <v>2033.187256143102</v>
       </c>
       <c r="C8" t="n">
-        <v>905.6326735593416</v>
+        <v>2033.187256143102</v>
       </c>
       <c r="D8" t="n">
-        <v>783.8359545029225</v>
+        <v>1628.723326236163</v>
       </c>
       <c r="E8" t="n">
-        <v>369.4957390198192</v>
+        <v>1214.38311075306</v>
       </c>
       <c r="F8" t="n">
-        <v>369.4957390198192</v>
+        <v>793.352698706747</v>
       </c>
       <c r="G8" t="n">
-        <v>369.4957390198192</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="H8" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J8" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K8" t="n">
-        <v>58.5872416475372</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L8" t="n">
-        <v>771.1786414597752</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M8" t="n">
-        <v>1496.195756848048</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N8" t="n">
-        <v>2221.212872236321</v>
+        <v>2853.966425778947</v>
       </c>
       <c r="O8" t="n">
-        <v>2864.843728653426</v>
+        <v>3497.597282196052</v>
       </c>
       <c r="P8" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q8" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R8" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S8" t="n">
-        <v>2929.36208237686</v>
+        <v>3656.273267129573</v>
       </c>
       <c r="T8" t="n">
-        <v>2707.155598323719</v>
+        <v>3434.066783076432</v>
       </c>
       <c r="U8" t="n">
-        <v>2450.095106583229</v>
+        <v>3177.006291335942</v>
       </c>
       <c r="V8" t="n">
-        <v>2100.25755191971</v>
+        <v>2827.168736672423</v>
       </c>
       <c r="W8" t="n">
-        <v>1716.497251054878</v>
+        <v>2443.408435807592</v>
       </c>
       <c r="X8" t="n">
-        <v>1315.853853223831</v>
+        <v>2443.408435807592</v>
       </c>
       <c r="Y8" t="n">
-        <v>1315.853853223831</v>
+        <v>2443.408435807592</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C9" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D9" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E9" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F9" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G9" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H9" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I9" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J9" t="n">
-        <v>58.5872416475372</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K9" t="n">
-        <v>514.3934979128359</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="L9" t="n">
-        <v>1175.481669832124</v>
+        <v>927.6169467092186</v>
       </c>
       <c r="M9" t="n">
-        <v>1175.481669832124</v>
+        <v>927.6169467092186</v>
       </c>
       <c r="N9" t="n">
-        <v>1401.119346952143</v>
+        <v>1416.248022531903</v>
       </c>
       <c r="O9" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P9" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q9" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R9" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S9" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T9" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U9" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V9" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W9" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X9" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y9" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>58.5872416475372</v>
+        <v>1163.049767528434</v>
       </c>
       <c r="C10" t="n">
-        <v>58.5872416475372</v>
+        <v>991.9563950901502</v>
       </c>
       <c r="D10" t="n">
-        <v>58.5872416475372</v>
+        <v>832.4617504130601</v>
       </c>
       <c r="E10" t="n">
-        <v>58.5872416475372</v>
+        <v>671.5509352813797</v>
       </c>
       <c r="F10" t="n">
-        <v>58.5872416475372</v>
+        <v>506.9198093919709</v>
       </c>
       <c r="G10" t="n">
-        <v>58.5872416475372</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="H10" t="n">
-        <v>58.5872416475372</v>
+        <v>190.061963122971</v>
       </c>
       <c r="I10" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J10" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K10" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L10" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M10" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N10" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O10" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P10" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q10" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R10" t="n">
-        <v>1502.713419943787</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S10" t="n">
-        <v>1316.321651823697</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="T10" t="n">
-        <v>1076.772912800399</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="U10" t="n">
-        <v>793.9747653465236</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="V10" t="n">
-        <v>520.0890202860455</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="W10" t="n">
-        <v>241.0193557949199</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="X10" t="n">
-        <v>58.5872416475372</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.5872416475372</v>
+        <v>1350.749473922478</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1712.810743970851</v>
+        <v>2090.234309952579</v>
       </c>
       <c r="C11" t="n">
-        <v>1302.686153284121</v>
+        <v>1680.109719265849</v>
       </c>
       <c r="D11" t="n">
-        <v>1302.686153284121</v>
+        <v>1275.645789358909</v>
       </c>
       <c r="E11" t="n">
-        <v>888.3459378010175</v>
+        <v>861.3055738758062</v>
       </c>
       <c r="F11" t="n">
-        <v>467.315525754705</v>
+        <v>440.2751618294938</v>
       </c>
       <c r="G11" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H11" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I11" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J11" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K11" t="n">
-        <v>596.7467427565767</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L11" t="n">
-        <v>596.7467427565767</v>
+        <v>786.3073170395352</v>
       </c>
       <c r="M11" t="n">
-        <v>1321.76385814485</v>
+        <v>1562.625908031289</v>
       </c>
       <c r="N11" t="n">
-        <v>1435.413521245312</v>
+        <v>2315.806924669907</v>
       </c>
       <c r="O11" t="n">
-        <v>2079.044377662417</v>
+        <v>2959.437781087012</v>
       </c>
       <c r="P11" t="n">
-        <v>2608.201075581568</v>
+        <v>3488.594479006164</v>
       </c>
       <c r="Q11" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R11" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S11" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T11" t="n">
-        <v>2924.611994518297</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U11" t="n">
-        <v>2924.611994518297</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V11" t="n">
-        <v>2924.611994518297</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="W11" t="n">
-        <v>2924.611994518297</v>
+        <v>3302.035560500025</v>
       </c>
       <c r="X11" t="n">
-        <v>2523.96859668725</v>
+        <v>2901.392162668978</v>
       </c>
       <c r="Y11" t="n">
-        <v>2123.03192363534</v>
+        <v>2500.455489617068</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C12" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D12" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E12" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F12" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G12" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H12" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I12" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J12" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K12" t="n">
-        <v>58.5872416475372</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="L12" t="n">
-        <v>58.5872416475372</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="M12" t="n">
-        <v>58.5872416475372</v>
+        <v>1372.499254187162</v>
       </c>
       <c r="N12" t="n">
-        <v>460.0094704169994</v>
+        <v>1416.248022531903</v>
       </c>
       <c r="O12" t="n">
-        <v>1163.966560962894</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P12" t="n">
-        <v>1725.672453451424</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q12" t="n">
-        <v>2075.516918135407</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R12" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S12" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T12" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U12" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V12" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W12" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X12" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y12" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>550.0860738945912</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C13" t="n">
-        <v>378.9927014563077</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D13" t="n">
-        <v>219.4980567792177</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E13" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F13" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G13" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H13" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I13" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J13" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K13" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L13" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M13" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N13" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O13" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P13" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q13" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R13" t="n">
-        <v>1587.986138268387</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S13" t="n">
-        <v>1587.986138268387</v>
+        <v>1331.450327403457</v>
       </c>
       <c r="T13" t="n">
-        <v>1587.986138268387</v>
+        <v>1091.901588380159</v>
       </c>
       <c r="U13" t="n">
-        <v>1529.085051980556</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="V13" t="n">
-        <v>1255.199306920078</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="W13" t="n">
-        <v>976.1296424289521</v>
+        <v>256.1480313746799</v>
       </c>
       <c r="X13" t="n">
-        <v>737.7857802886356</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="Y13" t="n">
-        <v>737.7857802886356</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1199.254435173299</v>
+        <v>1723.675065350382</v>
       </c>
       <c r="C14" t="n">
-        <v>1199.254435173299</v>
+        <v>1313.550474663652</v>
       </c>
       <c r="D14" t="n">
-        <v>1199.254435173299</v>
+        <v>909.0865447567129</v>
       </c>
       <c r="E14" t="n">
-        <v>1199.254435173299</v>
+        <v>494.7463292736096</v>
       </c>
       <c r="F14" t="n">
-        <v>778.224023126987</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G14" t="n">
-        <v>369.4957390198192</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H14" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I14" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J14" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K14" t="n">
-        <v>58.5872416475372</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L14" t="n">
-        <v>771.1786414597752</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M14" t="n">
-        <v>1496.195756848048</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N14" t="n">
-        <v>2221.212872236321</v>
+        <v>2853.966425778947</v>
       </c>
       <c r="O14" t="n">
-        <v>2864.843728653426</v>
+        <v>3497.597282196052</v>
       </c>
       <c r="P14" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q14" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R14" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S14" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T14" t="n">
-        <v>2707.155598323719</v>
+        <v>3669.07417142618</v>
       </c>
       <c r="U14" t="n">
-        <v>2450.095106583229</v>
+        <v>3669.07417142618</v>
       </c>
       <c r="V14" t="n">
-        <v>2100.25755191971</v>
+        <v>3319.236616762661</v>
       </c>
       <c r="W14" t="n">
-        <v>1716.497251054878</v>
+        <v>2935.476315897829</v>
       </c>
       <c r="X14" t="n">
-        <v>1315.853853223831</v>
+        <v>2534.832918066782</v>
       </c>
       <c r="Y14" t="n">
-        <v>1315.853853223831</v>
+        <v>2133.896245014872</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C15" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D15" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E15" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F15" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G15" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H15" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I15" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J15" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K15" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L15" t="n">
-        <v>58.5872416475372</v>
+        <v>734.8040891465854</v>
       </c>
       <c r="M15" t="n">
-        <v>58.5872416475372</v>
+        <v>734.8040891465854</v>
       </c>
       <c r="N15" t="n">
-        <v>783.60435703581</v>
+        <v>1608.462181258203</v>
       </c>
       <c r="O15" t="n">
-        <v>1487.561447581704</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P15" t="n">
-        <v>1755.231972814054</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q15" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R15" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S15" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T15" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U15" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V15" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W15" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X15" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y15" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1147.921091948674</v>
+        <v>1163.049767528434</v>
       </c>
       <c r="C16" t="n">
-        <v>976.8277195103904</v>
+        <v>991.9563950901502</v>
       </c>
       <c r="D16" t="n">
-        <v>817.3330748333003</v>
+        <v>832.4617504130601</v>
       </c>
       <c r="E16" t="n">
-        <v>656.4222597016197</v>
+        <v>671.5509352813797</v>
       </c>
       <c r="F16" t="n">
-        <v>491.791133812211</v>
+        <v>506.9198093919709</v>
       </c>
       <c r="G16" t="n">
-        <v>324.5407427377544</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="H16" t="n">
-        <v>174.9332875432111</v>
+        <v>190.061963122971</v>
       </c>
       <c r="I16" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J16" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K16" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L16" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M16" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N16" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O16" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P16" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q16" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R16" t="n">
-        <v>1587.986138268387</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S16" t="n">
-        <v>1587.986138268387</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="T16" t="n">
-        <v>1587.986138268387</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="U16" t="n">
-        <v>1587.986138268387</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="V16" t="n">
-        <v>1587.986138268387</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="W16" t="n">
-        <v>1587.986138268387</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="X16" t="n">
-        <v>1560.356496953953</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="Y16" t="n">
-        <v>1335.620798342718</v>
+        <v>1350.749473922478</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C17" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="H17" t="n">
-        <v>179.5954603735497</v>
+        <v>141.3700819604442</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5516,7 +5518,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5549,16 +5551,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>4047.636833531609</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W17" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X17" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y17" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C18" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D18" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E18" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F18" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G18" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H18" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I18" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>3071.501944945938</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>3721.075007995997</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>3721.075007995997</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N18" t="n">
-        <v>3721.075007995997</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O18" t="n">
-        <v>3721.075007995997</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P18" t="n">
-        <v>4282.780900484527</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
-        <v>4632.62536516851</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S18" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T18" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U18" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V18" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W18" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X18" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y18" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="19">
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>263.1246725686132</v>
+        <v>213.9746261193704</v>
       </c>
       <c r="C19" t="n">
-        <v>93.2436976906228</v>
+        <v>213.9746261193704</v>
       </c>
       <c r="D19" t="n">
-        <v>93.2436976906228</v>
+        <v>213.9746261193704</v>
       </c>
       <c r="E19" t="n">
-        <v>93.2436976906228</v>
+        <v>213.9746261193704</v>
       </c>
       <c r="F19" t="n">
         <v>93.2436976906228</v>
@@ -5707,16 +5709,16 @@
         <v>913.9039397142094</v>
       </c>
       <c r="V19" t="n">
-        <v>913.9039397142094</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W19" t="n">
-        <v>913.9039397142094</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="X19" t="n">
-        <v>675.5600775738928</v>
+        <v>401.6743325134148</v>
       </c>
       <c r="Y19" t="n">
-        <v>450.8243789626575</v>
+        <v>401.6743325134148</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H20" t="n">
         <v>179.5954603735497</v>
@@ -5750,10 +5752,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5777,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V20" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W20" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X20" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>549.0499539559215</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L21" t="n">
-        <v>1210.13812587521</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M21" t="n">
-        <v>2053.115206569777</v>
+        <v>1129.033635947823</v>
       </c>
       <c r="N21" t="n">
-        <v>2053.115206569777</v>
+        <v>2002.69172805944</v>
       </c>
       <c r="O21" t="n">
-        <v>2053.115206569777</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>916.6240469015422</v>
+        <v>3458.450207833939</v>
       </c>
       <c r="C22" t="n">
-        <v>745.5306744632587</v>
+        <v>3287.356835395656</v>
       </c>
       <c r="D22" t="n">
-        <v>586.0360297861687</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E22" t="n">
-        <v>425.1252146544881</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F22" t="n">
-        <v>260.4940887650794</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G22" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H22" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I22" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J22" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K22" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L22" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M22" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N22" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O22" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P22" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q22" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R22" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S22" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U22" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V22" t="n">
-        <v>1622.642594311473</v>
+        <v>4388.299139470661</v>
       </c>
       <c r="W22" t="n">
-        <v>1567.403314047138</v>
+        <v>4109.229474979536</v>
       </c>
       <c r="X22" t="n">
-        <v>1329.059451906822</v>
+        <v>3870.885612839219</v>
       </c>
       <c r="Y22" t="n">
-        <v>1104.323753295587</v>
+        <v>3646.149914227984</v>
       </c>
     </row>
     <row r="23">
@@ -5969,19 +5971,19 @@
         <v>1692.113136769081</v>
       </c>
       <c r="D23" t="n">
-        <v>1325.874585275247</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E23" t="n">
-        <v>911.5343697921442</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F23" t="n">
-        <v>490.5039577458317</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G23" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C24" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D24" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E24" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F24" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G24" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H24" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I24" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="M24" t="n">
-        <v>562.1177108836107</v>
+        <v>3458.672769375206</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.775802995229</v>
+        <v>4332.330861486824</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R24" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S24" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T24" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U24" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V24" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W24" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X24" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y24" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>548.5451751656769</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="C25" t="n">
-        <v>548.5451751656769</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="D25" t="n">
-        <v>548.5451751656769</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="E25" t="n">
-        <v>548.5451751656769</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F25" t="n">
-        <v>410.1015439596227</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G25" t="n">
-        <v>242.8511528851661</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H25" t="n">
-        <v>93.2436976906228</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I25" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J25" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K25" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L25" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M25" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N25" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O25" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P25" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S25" t="n">
-        <v>1622.642594311473</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T25" t="n">
-        <v>1622.642594311473</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U25" t="n">
-        <v>1339.844446857597</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="V25" t="n">
-        <v>1065.958701797119</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="W25" t="n">
-        <v>786.8890373059935</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="X25" t="n">
-        <v>548.5451751656769</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="Y25" t="n">
-        <v>548.5451751656769</v>
+        <v>3730.621005964372</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D26" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E26" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F26" t="n">
-        <v>588.3237444807176</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G26" t="n">
-        <v>179.5954603735497</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K26" t="n">
         <v>885.5886702674165</v>
@@ -6251,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="27">
@@ -6312,13 +6314,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M27" t="n">
-        <v>562.1177108836107</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="P27" t="n">
         <v>2139.732893541123</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4144.771357899697</v>
+        <v>1066.231502096085</v>
       </c>
       <c r="C28" t="n">
-        <v>4051.026465773143</v>
+        <v>895.138129657802</v>
       </c>
       <c r="D28" t="n">
-        <v>3891.531821096053</v>
+        <v>735.6434849807119</v>
       </c>
       <c r="E28" t="n">
-        <v>3730.621005964372</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="F28" t="n">
-        <v>3565.989880074963</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G28" t="n">
-        <v>3398.739489000507</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H28" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K28" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L28" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M28" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N28" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O28" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P28" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W28" t="n">
-        <v>4383.115220040014</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X28" t="n">
-        <v>4144.771357899697</v>
+        <v>1478.666907101365</v>
       </c>
       <c r="Y28" t="n">
-        <v>4144.771357899697</v>
+        <v>1253.93120849013</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C29" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D29" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E29" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="H29" t="n">
-        <v>179.5954603735497</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="I29" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="J29" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K29" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L29" t="n">
         <v>1598.180070079655</v>
@@ -6491,22 +6493,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V29" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W29" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X29" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y29" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="30">
@@ -6546,22 +6548,22 @@
         <v>549.0499539559215</v>
       </c>
       <c r="L30" t="n">
-        <v>874.0699105066985</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M30" t="n">
-        <v>874.0699105066985</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N30" t="n">
-        <v>874.0699105066985</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O30" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4222.119838211426</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="C31" t="n">
-        <v>4051.026465773143</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="D31" t="n">
-        <v>3891.531821096053</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E31" t="n">
-        <v>3730.621005964372</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F31" t="n">
-        <v>3565.989880074963</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G31" t="n">
-        <v>3398.739489000507</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H31" t="n">
-        <v>3249.132033805963</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I31" t="n">
         <v>3132.785987910289</v>
@@ -6646,25 +6648,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S31" t="n">
-        <v>4662.18488453114</v>
+        <v>4475.79311641105</v>
       </c>
       <c r="T31" t="n">
-        <v>4662.18488453114</v>
+        <v>4236.244377387751</v>
       </c>
       <c r="U31" t="n">
-        <v>4662.18488453114</v>
+        <v>3953.446229933875</v>
       </c>
       <c r="V31" t="n">
-        <v>4662.18488453114</v>
+        <v>3679.560484873397</v>
       </c>
       <c r="W31" t="n">
-        <v>4662.18488453114</v>
+        <v>3400.490820382272</v>
       </c>
       <c r="X31" t="n">
-        <v>4634.555243216706</v>
+        <v>3162.146958241955</v>
       </c>
       <c r="Y31" t="n">
-        <v>4409.819544605471</v>
+        <v>3132.785987910289</v>
       </c>
     </row>
     <row r="32">
@@ -6728,10 +6730,10 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4494.590496051882</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U32" t="n">
-        <v>4494.590496051882</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V32" t="n">
         <v>4144.752941388363</v>
@@ -6780,19 +6782,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>354.5244442569915</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>354.5244442569915</v>
       </c>
       <c r="M33" t="n">
-        <v>212.2732461996272</v>
+        <v>354.5244442569915</v>
       </c>
       <c r="N33" t="n">
-        <v>1085.931338311245</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O33" t="n">
-        <v>1789.888428857139</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P33" t="n">
         <v>1789.888428857139</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3175.652060380064</v>
+        <v>423.8317148059963</v>
       </c>
       <c r="C34" t="n">
-        <v>3175.652060380064</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="D34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U34" t="n">
-        <v>4379.386737077264</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V34" t="n">
-        <v>4105.500992016786</v>
+        <v>1353.680646442718</v>
       </c>
       <c r="W34" t="n">
-        <v>3826.43132752566</v>
+        <v>1074.610981951593</v>
       </c>
       <c r="X34" t="n">
-        <v>3588.087465385343</v>
+        <v>836.267119811276</v>
       </c>
       <c r="Y34" t="n">
-        <v>3363.351766774108</v>
+        <v>611.5314212000407</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D35" t="n">
-        <v>1337.342609327206</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E35" t="n">
-        <v>923.0023938441032</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F35" t="n">
-        <v>501.9719817977906</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G35" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H35" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6962,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C36" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D36" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E36" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F36" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G36" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H36" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I36" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>3458.672769375206</v>
       </c>
       <c r="N36" t="n">
-        <v>1809.878870496807</v>
+        <v>4332.330861486824</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R36" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S36" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T36" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U36" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V36" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W36" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X36" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y36" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>674.2521392999383</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>503.1587668616548</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>343.6641221845649</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
         <v>93.2436976906228</v>
@@ -7123,22 +7125,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1383.093855288175</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U37" t="n">
-        <v>1100.295707834299</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V37" t="n">
-        <v>1100.295707834299</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W37" t="n">
-        <v>1100.295707834299</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X37" t="n">
-        <v>861.9518456939827</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y37" t="n">
-        <v>861.9518456939827</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2140.463105868917</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C38" t="n">
-        <v>1730.338515182187</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D38" t="n">
-        <v>1325.874585275247</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E38" t="n">
-        <v>911.5343697921442</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F38" t="n">
-        <v>490.5039577458317</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7205,19 +7207,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U38" t="n">
-        <v>4085.862211944715</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V38" t="n">
-        <v>3736.024657281195</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W38" t="n">
-        <v>3352.264356416364</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X38" t="n">
-        <v>2951.620958585316</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y38" t="n">
-        <v>2550.684285533406</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C39" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D39" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E39" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F39" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G39" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H39" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I39" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="L39" t="n">
-        <v>754.331869609911</v>
+        <v>3276.783860599928</v>
       </c>
       <c r="M39" t="n">
-        <v>754.331869609911</v>
+        <v>3438.682327735538</v>
       </c>
       <c r="N39" t="n">
-        <v>1578.027001052593</v>
+        <v>4312.340419847156</v>
       </c>
       <c r="O39" t="n">
-        <v>1578.027001052593</v>
+        <v>4312.340419847156</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>4312.340419847156</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R39" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S39" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T39" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U39" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V39" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W39" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X39" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y39" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>692.7936626747511</v>
+        <v>798.0226983151792</v>
       </c>
       <c r="C40" t="n">
-        <v>521.7002902364676</v>
+        <v>798.0226983151792</v>
       </c>
       <c r="D40" t="n">
-        <v>362.2056455593776</v>
+        <v>798.0226983151792</v>
       </c>
       <c r="E40" t="n">
-        <v>201.2948304276971</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F40" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G40" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H40" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7354,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S40" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T40" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U40" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="V40" t="n">
-        <v>1622.642594311473</v>
+        <v>1077.092362806305</v>
       </c>
       <c r="W40" t="n">
-        <v>1343.572929820347</v>
+        <v>798.0226983151792</v>
       </c>
       <c r="X40" t="n">
-        <v>1105.229067680031</v>
+        <v>798.0226983151792</v>
       </c>
       <c r="Y40" t="n">
-        <v>880.4933690687955</v>
+        <v>798.0226983151792</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1821.393570623253</v>
+        <v>2132.40334945755</v>
       </c>
       <c r="C41" t="n">
-        <v>1411.268979936523</v>
+        <v>1722.27875877082</v>
       </c>
       <c r="D41" t="n">
-        <v>1006.805050029584</v>
+        <v>1317.814828863881</v>
       </c>
       <c r="E41" t="n">
-        <v>592.4648345464807</v>
+        <v>903.4746133807774</v>
       </c>
       <c r="F41" t="n">
-        <v>369.4957390198192</v>
+        <v>482.444201334465</v>
       </c>
       <c r="G41" t="n">
-        <v>369.4957390198192</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H41" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I41" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J41" t="n">
-        <v>58.5872416475372</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K41" t="n">
-        <v>596.7467427565767</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L41" t="n">
-        <v>1309.338142568815</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M41" t="n">
-        <v>1435.413521245312</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="N41" t="n">
-        <v>1435.413521245312</v>
+        <v>3108.151897246701</v>
       </c>
       <c r="O41" t="n">
-        <v>2079.044377662417</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="P41" t="n">
-        <v>2608.201075581568</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="Q41" t="n">
-        <v>2929.36208237686</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R41" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S41" t="n">
-        <v>2794.081007170961</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T41" t="n">
-        <v>2571.87452311782</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U41" t="n">
-        <v>2571.87452311782</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V41" t="n">
-        <v>2222.036968454301</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="W41" t="n">
-        <v>2222.036968454301</v>
+        <v>3344.204600004997</v>
       </c>
       <c r="X41" t="n">
-        <v>1821.393570623253</v>
+        <v>2943.561202173949</v>
       </c>
       <c r="Y41" t="n">
-        <v>1821.393570623253</v>
+        <v>2542.624529122039</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C42" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D42" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E42" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F42" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G42" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H42" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I42" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J42" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K42" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L42" t="n">
-        <v>676.1022315638701</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M42" t="n">
-        <v>1401.119346952143</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="N42" t="n">
-        <v>1401.119346952143</v>
+        <v>475.1381459967595</v>
       </c>
       <c r="O42" t="n">
-        <v>2105.076437498037</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="P42" t="n">
-        <v>2105.076437498037</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="Q42" t="n">
-        <v>2105.076437498037</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R42" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S42" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T42" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U42" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V42" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W42" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X42" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y42" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>229.6806140858207</v>
+        <v>3174.582635896869</v>
       </c>
       <c r="C43" t="n">
-        <v>58.5872416475372</v>
+        <v>3003.489263458586</v>
       </c>
       <c r="D43" t="n">
-        <v>58.5872416475372</v>
+        <v>2843.994618781496</v>
       </c>
       <c r="E43" t="n">
-        <v>58.5872416475372</v>
+        <v>2683.083803649815</v>
       </c>
       <c r="F43" t="n">
-        <v>58.5872416475372</v>
+        <v>2589.600856908682</v>
       </c>
       <c r="G43" t="n">
-        <v>58.5872416475372</v>
+        <v>2422.350465834225</v>
       </c>
       <c r="H43" t="n">
-        <v>58.5872416475372</v>
+        <v>2272.743010639681</v>
       </c>
       <c r="I43" t="n">
-        <v>58.5872416475372</v>
+        <v>2156.396964744008</v>
       </c>
       <c r="J43" t="n">
-        <v>72.66979105274773</v>
+        <v>2170.479514149218</v>
       </c>
       <c r="K43" t="n">
-        <v>227.2221187749857</v>
+        <v>2325.031841871456</v>
       </c>
       <c r="L43" t="n">
-        <v>487.1192190550462</v>
+        <v>2584.928942151516</v>
       </c>
       <c r="M43" t="n">
-        <v>776.3832754955395</v>
+        <v>2874.19299859201</v>
       </c>
       <c r="N43" t="n">
-        <v>1057.22205788979</v>
+        <v>3155.03178098626</v>
       </c>
       <c r="O43" t="n">
-        <v>1316.782668216264</v>
+        <v>3414.592391312734</v>
       </c>
       <c r="P43" t="n">
-        <v>1522.458108465876</v>
+        <v>3620.267831562346</v>
       </c>
       <c r="Q43" t="n">
-        <v>1587.986138268387</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R43" t="n">
-        <v>1587.986138268387</v>
+        <v>3600.523143040257</v>
       </c>
       <c r="S43" t="n">
-        <v>1587.986138268387</v>
+        <v>3414.131374920167</v>
       </c>
       <c r="T43" t="n">
-        <v>1528.513731842852</v>
+        <v>3174.582635896869</v>
       </c>
       <c r="U43" t="n">
-        <v>1245.715584388976</v>
+        <v>3174.582635896869</v>
       </c>
       <c r="V43" t="n">
-        <v>971.8298393284983</v>
+        <v>3174.582635896869</v>
       </c>
       <c r="W43" t="n">
-        <v>692.7601748373727</v>
+        <v>3174.582635896869</v>
       </c>
       <c r="X43" t="n">
-        <v>454.416312697056</v>
+        <v>3174.582635896869</v>
       </c>
       <c r="Y43" t="n">
-        <v>229.6806140858207</v>
+        <v>3174.582635896869</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.990957235965</v>
+        <v>2132.40334945755</v>
       </c>
       <c r="C44" t="n">
-        <v>1204.866366549235</v>
+        <v>1722.27875877082</v>
       </c>
       <c r="D44" t="n">
-        <v>1204.866366549235</v>
+        <v>1317.814828863881</v>
       </c>
       <c r="E44" t="n">
-        <v>790.5261510661317</v>
+        <v>903.4746133807774</v>
       </c>
       <c r="F44" t="n">
-        <v>369.4957390198192</v>
+        <v>482.444201334465</v>
       </c>
       <c r="G44" t="n">
-        <v>369.4957390198192</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H44" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I44" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J44" t="n">
-        <v>58.5872416475372</v>
+        <v>261.9144963961027</v>
       </c>
       <c r="K44" t="n">
-        <v>58.5872416475372</v>
+        <v>800.0739975051422</v>
       </c>
       <c r="L44" t="n">
-        <v>771.1786414597752</v>
+        <v>1512.66539731738</v>
       </c>
       <c r="M44" t="n">
-        <v>1496.195756848048</v>
+        <v>2288.983988309134</v>
       </c>
       <c r="N44" t="n">
-        <v>2221.212872236321</v>
+        <v>3042.165004947752</v>
       </c>
       <c r="O44" t="n">
-        <v>2864.843728653426</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="P44" t="n">
-        <v>2864.843728653426</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q44" t="n">
-        <v>2888.805436687295</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R44" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S44" t="n">
-        <v>2794.081007170961</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T44" t="n">
-        <v>2571.87452311782</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U44" t="n">
-        <v>2314.81403137733</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V44" t="n">
-        <v>1964.976476713811</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="W44" t="n">
-        <v>1964.976476713811</v>
+        <v>3344.204600004997</v>
       </c>
       <c r="X44" t="n">
-        <v>1964.976476713811</v>
+        <v>2943.561202173949</v>
       </c>
       <c r="Y44" t="n">
-        <v>1964.976476713811</v>
+        <v>2542.624529122039</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C45" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D45" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E45" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F45" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G45" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H45" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I45" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J45" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K45" t="n">
-        <v>514.3934979128359</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="L45" t="n">
-        <v>1175.481669832124</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="M45" t="n">
-        <v>1175.481669832124</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="N45" t="n">
-        <v>1175.481669832124</v>
+        <v>1403.180265604214</v>
       </c>
       <c r="O45" t="n">
-        <v>1543.370545009507</v>
+        <v>1403.180265604214</v>
       </c>
       <c r="P45" t="n">
-        <v>2105.076437498037</v>
+        <v>1964.886158092744</v>
       </c>
       <c r="Q45" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R45" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S45" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T45" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U45" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V45" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W45" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X45" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y45" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>658.1372066316654</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C46" t="n">
-        <v>551.379573743083</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D46" t="n">
-        <v>551.379573743083</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E46" t="n">
-        <v>390.4687586114026</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F46" t="n">
-        <v>225.8376327219938</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G46" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H46" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I46" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J46" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K46" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L46" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M46" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N46" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O46" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P46" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q46" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R46" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S46" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T46" t="n">
-        <v>1587.986138268387</v>
+        <v>1372.549034984329</v>
       </c>
       <c r="U46" t="n">
-        <v>1587.986138268387</v>
+        <v>1089.750887530453</v>
       </c>
       <c r="V46" t="n">
-        <v>1587.986138268387</v>
+        <v>815.8651424699747</v>
       </c>
       <c r="W46" t="n">
-        <v>1308.916473777262</v>
+        <v>536.795477978849</v>
       </c>
       <c r="X46" t="n">
-        <v>1070.572611636945</v>
+        <v>298.4516158385325</v>
       </c>
       <c r="Y46" t="n">
-        <v>845.8369130257098</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>314.6874826733409</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>392.3436386874106</v>
       </c>
       <c r="M2" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N2" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O2" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,22 +8057,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>491.4496229341743</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O3" t="n">
-        <v>768.8192472281761</v>
+        <v>126.9109628421569</v>
       </c>
       <c r="P3" t="n">
         <v>621.6393243851574</v>
@@ -8216,22 +8218,22 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>154.3064439393123</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L5" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M5" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N5" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O5" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>283.7489381988693</v>
       </c>
       <c r="Q5" t="n">
         <v>90.03380439915205</v>
@@ -8295,13 +8297,13 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>723.8803540323523</v>
+        <v>704.4036376163069</v>
       </c>
       <c r="M6" t="n">
-        <v>643.1706503868311</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N6" t="n">
         <v>53.19339339374999</v>
@@ -8310,10 +8312,10 @@
         <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
         <v>59.00019910540541</v>
@@ -8453,22 +8455,22 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>158.8194175469794</v>
+        <v>283.7489381988693</v>
       </c>
       <c r="Q8" t="n">
         <v>90.03380439915205</v>
@@ -8529,10 +8531,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
         <v>723.8803540323523</v>
@@ -8541,7 +8543,7 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>281.1102389695264</v>
+        <v>546.7601366489866</v>
       </c>
       <c r="O9" t="n">
         <v>768.8192472281761</v>
@@ -8690,16 +8692,16 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K11" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L11" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>207.7099302520355</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
@@ -8708,7 +8710,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681339</v>
+        <v>289.2271199129839</v>
       </c>
       <c r="R11" t="n">
         <v>87.31214281472352</v>
@@ -8769,28 +8771,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>458.6703921507826</v>
+        <v>97.38406848944746</v>
       </c>
       <c r="O12" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,22 +8929,22 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>158.8194175469794</v>
+        <v>283.7489381988693</v>
       </c>
       <c r="Q14" t="n">
         <v>90.03380439915205</v>
@@ -9009,22 +9011,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>785.533913987965</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>574.6635313430244</v>
       </c>
       <c r="P15" t="n">
-        <v>324.6339029142679</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
         <v>59.00019910540541</v>
@@ -9164,7 +9166,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L17" t="n">
         <v>815.2746908024792</v>
@@ -9185,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,28 +9245,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>712.2489309321202</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>53.19339339374999</v>
+        <v>841.9067396726143</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
@@ -9422,7 +9424,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>57.751479</v>
+        <v>166.3187983121741</v>
       </c>
       <c r="P21" t="n">
-        <v>141.7522481051737</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9723,13 +9725,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N24" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629454</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -9960,16 +9962,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N27" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>387.4455168657486</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10194,7 +10196,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>384.4175102257753</v>
+        <v>712.2489309321196</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
@@ -10203,16 +10205,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,22 +10430,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>319.7457288112504</v>
       </c>
       <c r="L33" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>177.79615091923</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
         <v>410.0708656603775</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
         <v>632.7318453389136</v>
@@ -10677,7 +10679,7 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
-        <v>390.9373608629449</v>
+        <v>390.9373608629454</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
@@ -10908,19 +10910,19 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>57.56428373841742</v>
+        <v>221.0980889259029</v>
       </c>
       <c r="N39" t="n">
-        <v>885.2086776792871</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
         <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11066,22 +11068,22 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>220.6390918070421</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
-        <v>743.321953824879</v>
+        <v>635.7022184829458</v>
       </c>
       <c r="P41" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,25 +11144,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>679.867038877852</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>789.9048043326325</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>53.19339339374999</v>
+        <v>458.6703921507827</v>
       </c>
       <c r="O42" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>263.4231662512933</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
         <v>743.321953824879</v>
@@ -11315,10 +11317,10 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q44" t="n">
-        <v>114.237549887909</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,22 +11381,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O45" t="n">
-        <v>429.3564034215989</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>213.5804518230746</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -22544,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,13 +22558,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>395.6600327763717</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -22595,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22610,10 +22612,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>94.35361412614731</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>170.64658743139</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22753,7 +22755,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
@@ -22768,10 +22770,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22784,22 +22786,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>243.4126597556038</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -22835,7 +22837,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>102.1229455907345</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
@@ -22844,13 +22846,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -22939,10 +22941,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>126.945026968824</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
@@ -22987,13 +22989,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23005,10 +23007,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>55.3526305130045</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -23024,16 +23026,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>279.8405387420152</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23069,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>104.7008961609094</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -23084,7 +23086,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -23176,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23227,25 +23229,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>55.35263051300461</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>57.06664624006473</v>
       </c>
     </row>
     <row r="11">
@@ -23261,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>41.74734910992152</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
@@ -23309,7 +23311,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>215.2818322326325</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
         <v>254.489886823085</v>
@@ -23318,7 +23320,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
         <v>162.9848146305146</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>221.6580905543839</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>55.3526305130045</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23492,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>290.6855439978183</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -23546,10 +23548,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.4299461733198</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
@@ -23716,10 +23718,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>57.06664624006473</v>
       </c>
     </row>
     <row r="17">
@@ -23744,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>37.84312462897442</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23789,10 +23791,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>96.14494677818658</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.200273584690223</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -23899,7 +23901,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>43.46119548605458</v>
       </c>
       <c r="G19" t="n">
         <v>165.577887163712</v>
@@ -23947,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23981,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>134.6847134965114</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24130,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>4.8745592198064</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
         <v>148.1113806425979</v>
@@ -24184,10 +24186,10 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>221.5920803845231</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24209,22 +24211,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>37.84312462897446</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24373,7 +24375,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>25.92561973652101</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>134.9699070214199</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -24452,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>76.57499550861168</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>93.42449318090684</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24692,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>49.19646844041387</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,10 +24733,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>222.4997066824603</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,25 +24888,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>208.6070786176241</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>193.420980996774</v>
       </c>
     </row>
     <row r="32">
@@ -24968,13 +24970,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>187.994239071985</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>187.9942390719855</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25075,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>115.4622864852425</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
@@ -25129,10 +25131,10 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>4.874559219806031</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25157,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>49.19646844041387</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25169,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>88.57144222862024</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>74.37030136187575</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
         <v>165.577887163712</v>
@@ -25363,22 +25365,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25403,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25445,7 +25447,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>37.84312462897432</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25454,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>53.42716423559462</v>
       </c>
       <c r="F40" t="n">
-        <v>56.01419322081109</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
@@ -25606,16 +25608,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25637,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>196.0807033544544</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>41.74734910992146</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>70.43669735679232</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>178.2755692717851</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>59.63330358477697</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>41.74734910992146</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>63.69238215420408</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
@@ -26074,13 +26076,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884234</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>568511.3209553338</v>
+        <v>643082.9842095751</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>568511.320955334</v>
+        <v>643082.984209575</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>568511.320955334</v>
+        <v>643082.9842095751</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>568511.320955334</v>
+        <v>643082.984209575</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>568511.3209553338</v>
+        <v>643082.984209575</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>739338.5395049829</v>
+        <v>739338.539504983</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>739338.539504983</v>
+        <v>739338.5395049826</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>739338.5395049828</v>
+        <v>739338.5395049829</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>739338.5395049829</v>
+        <v>739338.5395049828</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>739338.5395049828</v>
+        <v>739338.539504983</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>568511.320955334</v>
+        <v>643082.984209575</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>568511.320955334</v>
+        <v>643082.9842095752</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>245011.2688821826</v>
+        <v>277141.0629351232</v>
       </c>
       <c r="C2" t="n">
-        <v>245011.2688821827</v>
+        <v>277141.0629351233</v>
       </c>
       <c r="D2" t="n">
-        <v>245011.2688821827</v>
+        <v>277141.0629351232</v>
       </c>
       <c r="E2" t="n">
-        <v>245011.2688821827</v>
+        <v>277141.0629351232</v>
       </c>
       <c r="F2" t="n">
-        <v>245011.2688821827</v>
+        <v>277141.0629351232</v>
       </c>
       <c r="G2" t="n">
         <v>318613.5342886032</v>
       </c>
       <c r="H2" t="n">
+        <v>318613.5342886033</v>
+      </c>
+      <c r="I2" t="n">
         <v>318613.5342886032</v>
-      </c>
-      <c r="I2" t="n">
-        <v>318613.5342886031</v>
       </c>
       <c r="J2" t="n">
         <v>318613.5342886032</v>
@@ -26344,16 +26346,16 @@
         <v>318613.5342886032</v>
       </c>
       <c r="M2" t="n">
-        <v>318613.5342886033</v>
+        <v>318613.5342886032</v>
       </c>
       <c r="N2" t="n">
-        <v>318613.5342886033</v>
+        <v>318613.5342886032</v>
       </c>
       <c r="O2" t="n">
-        <v>245011.2688821827</v>
+        <v>277141.0629351232</v>
       </c>
       <c r="P2" t="n">
-        <v>245011.2688821826</v>
+        <v>277141.0629351232</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>245424.1522830951</v>
+        <v>308798.7416120438</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118735.1844321139</v>
+        <v>66903.39635363265</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>191612.5031703528</v>
+        <v>241091.5930877367</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34474.59853473143</v>
+        <v>39034.29883442245</v>
       </c>
       <c r="C4" t="n">
-        <v>34474.59853473143</v>
+        <v>39034.29883442246</v>
       </c>
       <c r="D4" t="n">
-        <v>34474.59853473143</v>
+        <v>39034.29883442245</v>
       </c>
       <c r="E4" t="n">
-        <v>34474.59853473143</v>
+        <v>39034.29883442246</v>
       </c>
       <c r="F4" t="n">
-        <v>34474.59853473143</v>
+        <v>39034.29883442246</v>
       </c>
       <c r="G4" t="n">
         <v>44919.86535090264</v>
       </c>
       <c r="H4" t="n">
-        <v>44919.86535090264</v>
+        <v>44919.86535090265</v>
       </c>
       <c r="I4" t="n">
-        <v>44919.86535090264</v>
+        <v>44919.86535090265</v>
       </c>
       <c r="J4" t="n">
         <v>44919.86535090265</v>
       </c>
       <c r="K4" t="n">
-        <v>44919.86535090264</v>
+        <v>44919.86535090263</v>
       </c>
       <c r="L4" t="n">
         <v>44919.86535090264</v>
@@ -26454,10 +26456,10 @@
         <v>44919.86535090265</v>
       </c>
       <c r="O4" t="n">
-        <v>34474.59853473143</v>
+        <v>39034.29883442245</v>
       </c>
       <c r="P4" t="n">
-        <v>34474.59853473143</v>
+        <v>39034.29883442246</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78153.90365212827</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="C5" t="n">
-        <v>78153.90365212827</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="D5" t="n">
-        <v>78153.90365212827</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="E5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="F5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="P5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-113041.3855877722</v>
+        <v>-160343.6746040889</v>
       </c>
       <c r="C6" t="n">
-        <v>132382.766695323</v>
+        <v>148455.067007955</v>
       </c>
       <c r="D6" t="n">
-        <v>132382.766695323</v>
+        <v>148455.0670079549</v>
       </c>
       <c r="E6" t="n">
-        <v>166010.366695323</v>
+        <v>182082.6670079549</v>
       </c>
       <c r="F6" t="n">
-        <v>166010.366695323</v>
+        <v>182082.6670079549</v>
       </c>
       <c r="G6" t="n">
-        <v>84093.27426071333</v>
+        <v>135925.0623391946</v>
       </c>
       <c r="H6" t="n">
+        <v>202828.4586928274</v>
+      </c>
+      <c r="I6" t="n">
         <v>202828.4586928272</v>
       </c>
-      <c r="I6" t="n">
-        <v>202828.4586928271</v>
-      </c>
       <c r="J6" t="n">
-        <v>11215.95552247445</v>
+        <v>-38263.13439490937</v>
       </c>
       <c r="K6" t="n">
         <v>202828.4586928273</v>
       </c>
       <c r="L6" t="n">
-        <v>202828.4586928273</v>
+        <v>202828.4586928272</v>
       </c>
       <c r="M6" t="n">
         <v>202828.4586928273</v>
       </c>
       <c r="N6" t="n">
-        <v>202828.4586928273</v>
+        <v>202828.4586928272</v>
       </c>
       <c r="O6" t="n">
-        <v>166010.366695323</v>
+        <v>182082.6670079549</v>
       </c>
       <c r="P6" t="n">
-        <v>166010.3666953229</v>
+        <v>182082.6670079549</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="C4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="D4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="E4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="F4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="P4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>433.2057005385699</v>
+        <v>244.0972557915707</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>433.2057005385699</v>
+        <v>244.0972557915707</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>241.363891340033</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>296.8582406245658</v>
       </c>
       <c r="M2" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N2" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O2" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>435.3350991233252</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O3" t="n">
-        <v>711.0677682281761</v>
+        <v>69.15948384215687</v>
       </c>
       <c r="P3" t="n">
         <v>567.3796893823536</v>
@@ -34936,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>65.17005426609514</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L5" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M5" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N5" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O5" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>190.0995749179851</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>667.7658302215033</v>
+        <v>648.2891138054579</v>
       </c>
       <c r="M6" t="n">
-        <v>585.6063666484137</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35030,10 +35032,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>65.17005426609525</v>
+        <v>190.0995749179851</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>667.7658302215033</v>
@@ -35261,7 +35263,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>227.9168455757764</v>
+        <v>493.5667432552367</v>
       </c>
       <c r="O9" t="n">
         <v>711.0677682281761</v>
@@ -35410,16 +35412,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>114.7976394954162</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
@@ -35428,7 +35430,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>324.4050573689818</v>
+        <v>199.1933155138319</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,28 +35491,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>405.4769987570326</v>
+        <v>44.19067509569746</v>
       </c>
       <c r="O12" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>65.17005426609525</v>
+        <v>190.0995749179851</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35729,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>732.340520594215</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>516.9120523430244</v>
       </c>
       <c r="P15" t="n">
-        <v>270.3742679114642</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,7 +35886,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L17" t="n">
         <v>719.7892927396343</v>
@@ -35905,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35965,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>656.1344071212711</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>788.7133462788644</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36142,7 +36144,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>108.5673193121741</v>
       </c>
       <c r="P21" t="n">
-        <v>87.49261310237</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N24" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629454</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36680,16 +36682,16 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N27" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36914,7 +36916,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>328.3029864149263</v>
+        <v>656.1344071212706</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36923,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>263.919946026635</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>120.2318671808126</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
         <v>353.3782471555388</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
         <v>543.5954556656965</v>
@@ -37397,7 +37399,7 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
-        <v>333.1858818629449</v>
+        <v>333.1858818629454</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37628,19 +37630,19 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>163.5338051874855</v>
       </c>
       <c r="N39" t="n">
-        <v>832.0152842855372</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37786,22 +37788,22 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>127.3488673499967</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
-        <v>650.1321781990958</v>
+        <v>542.5124428571627</v>
       </c>
       <c r="P41" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37864,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>623.7525150670029</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>405.4769987570327</v>
       </c>
       <c r="O42" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>190.0995749179854</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
         <v>650.1321781990958</v>
@@ -38035,10 +38037,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>24.20374548875697</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,22 +38101,22 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O45" t="n">
-        <v>371.6049244215989</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>156.8878333182359</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1050739.429613132</v>
+        <v>1048231.077887219</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5562152.400446148</v>
+        <v>5562152.400446149</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4028287.523710872</v>
+        <v>4028287.523710873</v>
       </c>
     </row>
     <row r="9">
@@ -667,19 +667,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>163.5020420561914</v>
       </c>
       <c r="F2" t="n">
-        <v>21.1600751494776</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,13 +715,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="5">
@@ -904,13 +904,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>401.8437174410124</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>117.8614736218753</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751807</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
@@ -1119,10 +1119,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>29.22736829293074</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -1195,10 +1195,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>223.1111405818613</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>165.4216953850582</v>
+        <v>154.9138530358404</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>93.88715175433043</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
@@ -1384,10 +1384,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>362.8936521561746</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
@@ -1593,10 +1593,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>27.77250173713472</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>258.7857398059712</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>16.55447303928995</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>29.0673606283497</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>165.4216953850582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1858,13 +1858,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>47.64512042712315</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>31.42227043795236</v>
       </c>
       <c r="T17" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>119.5236191444601</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
@@ -2064,13 +2064,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="20">
@@ -2095,10 +2095,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>269.9562877695847</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>153.0251390105127</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -2307,7 +2307,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="23">
@@ -2329,16 +2329,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>367.6236394854355</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>219.2279701699388</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
@@ -2535,16 +2535,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>136.1769805884533</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>227.0672929610291</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>271.4342543713331</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
@@ -2572,10 +2572,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>251.4066896505621</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>142.5359303380066</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="29">
@@ -2800,16 +2800,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>187.1291969431396</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>355.4445328256822</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>219.9844192126098</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
@@ -3018,7 +3018,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.06736062834895</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,10 +3085,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>243.833185100996</v>
       </c>
       <c r="V32" t="n">
-        <v>158.3449400448986</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>266.2723283900672</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
@@ -3255,7 +3255,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>85.48824505609757</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>119.8051733265733</v>
       </c>
       <c r="V35" t="n">
-        <v>257.7677368882639</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>42.43741174507654</v>
       </c>
       <c r="T37" t="n">
-        <v>228.2601210751805</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>279.9701659793371</v>
@@ -3523,7 +3523,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,10 +3556,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3568,7 +3568,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>39.64108301376388</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>105.8745427447691</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -3726,10 +3726,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="41">
@@ -3751,7 +3751,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>188.6718583426168</v>
       </c>
       <c r="G41" t="n">
         <v>404.6410012660961</v>
@@ -3793,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>338.1753487462616</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -3900,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>92.54811727372233</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="44">
@@ -3985,7 +3985,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>60.65005181979144</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
@@ -3994,7 +3994,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>338.1753487462616</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>153.0251390105131</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>228.2601210751807</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1732.746750693538</v>
+        <v>1859.44655981788</v>
       </c>
       <c r="C2" t="n">
-        <v>1322.622160006808</v>
+        <v>1449.32196913115</v>
       </c>
       <c r="D2" t="n">
-        <v>918.1582300998689</v>
+        <v>1044.858039224211</v>
       </c>
       <c r="E2" t="n">
-        <v>503.8180146167656</v>
+        <v>879.7044613896738</v>
       </c>
       <c r="F2" t="n">
-        <v>482.444201334465</v>
+        <v>879.7044613896738</v>
       </c>
       <c r="G2" t="n">
-        <v>73.71591722729714</v>
+        <v>470.976177282506</v>
       </c>
       <c r="H2" t="n">
-        <v>73.71591722729714</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I2" t="n">
         <v>73.71591722729714</v>
       </c>
       <c r="J2" t="n">
-        <v>327.9013886950514</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K2" t="n">
-        <v>327.9013886950514</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L2" t="n">
         <v>621.7910469133716</v>
@@ -4363,19 +4363,19 @@
         <v>3328.308302105817</v>
       </c>
       <c r="U2" t="n">
-        <v>3328.308302105817</v>
+        <v>3071.247810365327</v>
       </c>
       <c r="V2" t="n">
-        <v>3328.308302105817</v>
+        <v>3071.247810365327</v>
       </c>
       <c r="W2" t="n">
-        <v>2944.548001240985</v>
+        <v>3071.247810365327</v>
       </c>
       <c r="X2" t="n">
-        <v>2543.904603409938</v>
+        <v>2670.60441253428</v>
       </c>
       <c r="Y2" t="n">
-        <v>2142.967930358028</v>
+        <v>2269.66773948237</v>
       </c>
     </row>
     <row r="3">
@@ -4409,22 +4409,22 @@
         <v>1639.306665514357</v>
       </c>
       <c r="J3" t="n">
-        <v>1832.11952307699</v>
+        <v>1639.306665514357</v>
       </c>
       <c r="K3" t="n">
-        <v>1832.11952307699</v>
+        <v>1639.306665514357</v>
       </c>
       <c r="L3" t="n">
-        <v>1832.11952307699</v>
+        <v>1789.017225440413</v>
       </c>
       <c r="M3" t="n">
-        <v>1832.11952307699</v>
+        <v>2631.99430613498</v>
       </c>
       <c r="N3" t="n">
-        <v>2705.777615188608</v>
+        <v>2631.99430613498</v>
       </c>
       <c r="O3" t="n">
-        <v>2774.245504192344</v>
+        <v>3335.951396680874</v>
       </c>
       <c r="P3" t="n">
         <v>3335.951396680874</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1163.049767528434</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C4" t="n">
-        <v>991.9563950901502</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D4" t="n">
-        <v>832.4617504130601</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E4" t="n">
-        <v>671.5509352813797</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F4" t="n">
-        <v>506.9198093919709</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G4" t="n">
-        <v>339.6694183175143</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H4" t="n">
-        <v>190.061963122971</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I4" t="n">
         <v>73.71591722729714</v>
@@ -4518,22 +4518,22 @@
         <v>1603.114813848147</v>
       </c>
       <c r="T4" t="n">
-        <v>1603.114813848147</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U4" t="n">
-        <v>1603.114813848147</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V4" t="n">
-        <v>1603.114813848147</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W4" t="n">
-        <v>1603.114813848147</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X4" t="n">
-        <v>1575.485172533713</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y4" t="n">
-        <v>1350.749473922478</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2022.28143478352</v>
+        <v>1605.11568008316</v>
       </c>
       <c r="C5" t="n">
-        <v>1612.15684409679</v>
+        <v>1194.99108939643</v>
       </c>
       <c r="D5" t="n">
-        <v>1207.69291418985</v>
+        <v>790.5271594894907</v>
       </c>
       <c r="E5" t="n">
-        <v>793.352698706747</v>
+        <v>790.5271594894907</v>
       </c>
       <c r="F5" t="n">
-        <v>793.352698706747</v>
+        <v>790.5271594894907</v>
       </c>
       <c r="G5" t="n">
         <v>384.6244145995792</v>
@@ -4567,25 +4567,25 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J5" t="n">
-        <v>73.71591722729714</v>
+        <v>124.188191493897</v>
       </c>
       <c r="K5" t="n">
-        <v>611.8754183363367</v>
+        <v>662.3476926029365</v>
       </c>
       <c r="L5" t="n">
-        <v>1324.466818148575</v>
+        <v>662.3476926029365</v>
       </c>
       <c r="M5" t="n">
-        <v>2100.785409140329</v>
+        <v>1438.66628359469</v>
       </c>
       <c r="N5" t="n">
-        <v>2853.966425778947</v>
+        <v>2191.847300233308</v>
       </c>
       <c r="O5" t="n">
-        <v>3497.597282196052</v>
+        <v>2835.478156650413</v>
       </c>
       <c r="P5" t="n">
-        <v>3685.795861364857</v>
+        <v>3364.634854569565</v>
       </c>
       <c r="Q5" t="n">
         <v>3685.795861364857</v>
@@ -4594,25 +4594,25 @@
         <v>3685.795861364857</v>
       </c>
       <c r="S5" t="n">
-        <v>3685.795861364857</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T5" t="n">
-        <v>3566.743867807407</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="U5" t="n">
-        <v>3566.743867807407</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="V5" t="n">
-        <v>3216.906313143888</v>
+        <v>3200.677231495439</v>
       </c>
       <c r="W5" t="n">
-        <v>2833.146012279056</v>
+        <v>2816.916930630607</v>
       </c>
       <c r="X5" t="n">
-        <v>2432.502614448009</v>
+        <v>2416.27353279956</v>
       </c>
       <c r="Y5" t="n">
-        <v>2432.502614448009</v>
+        <v>2015.33685974765</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2318.137507400892</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C6" t="n">
-        <v>2184.142436149837</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D6" t="n">
-        <v>2067.24527836923</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E6" t="n">
-        <v>1946.752462361558</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F6" t="n">
-        <v>1837.792582544062</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G6" t="n">
-        <v>1730.802469858401</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H6" t="n">
-        <v>1660.055256894117</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I6" t="n">
-        <v>1639.306665514357</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J6" t="n">
-        <v>1639.306665514357</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K6" t="n">
-        <v>1639.306665514357</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L6" t="n">
-        <v>2281.11288818176</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M6" t="n">
-        <v>3124.089968876327</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="N6" t="n">
-        <v>3124.089968876327</v>
+        <v>504.6976653593895</v>
       </c>
       <c r="O6" t="n">
-        <v>3124.089968876327</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="P6" t="n">
-        <v>3685.795861364857</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="Q6" t="n">
-        <v>3685.795861364857</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R6" t="n">
-        <v>3685.795861364857</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S6" t="n">
-        <v>3577.805851479166</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T6" t="n">
-        <v>3418.463987666174</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U6" t="n">
-        <v>3221.113176804393</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V6" t="n">
-        <v>3007.401649797427</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W6" t="n">
-        <v>2794.168481533755</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X6" t="n">
-        <v>2617.842499672648</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y6" t="n">
-        <v>2458.440540036478</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="7">
@@ -4749,25 +4749,25 @@
         <v>1603.114813848147</v>
       </c>
       <c r="R7" t="n">
-        <v>1517.842095523547</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S7" t="n">
-        <v>1331.450327403457</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T7" t="n">
-        <v>1091.901588380159</v>
+        <v>1372.549034984329</v>
       </c>
       <c r="U7" t="n">
-        <v>809.1034409262836</v>
+        <v>1089.750887530453</v>
       </c>
       <c r="V7" t="n">
-        <v>535.2176958658056</v>
+        <v>815.8651424699747</v>
       </c>
       <c r="W7" t="n">
-        <v>256.1480313746799</v>
+        <v>536.795477978849</v>
       </c>
       <c r="X7" t="n">
-        <v>73.71591722729714</v>
+        <v>298.4516158385325</v>
       </c>
       <c r="Y7" t="n">
         <v>73.71591722729714</v>
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2033.187256143102</v>
+        <v>2443.311846829832</v>
       </c>
       <c r="C8" t="n">
         <v>2033.187256143102</v>
@@ -4804,52 +4804,52 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J8" t="n">
-        <v>73.71591722729714</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K8" t="n">
-        <v>611.8754183363367</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="L8" t="n">
-        <v>1324.466818148575</v>
+        <v>621.7910469133716</v>
       </c>
       <c r="M8" t="n">
-        <v>2100.785409140329</v>
+        <v>1398.109637905126</v>
       </c>
       <c r="N8" t="n">
-        <v>2853.966425778947</v>
+        <v>2151.290654543744</v>
       </c>
       <c r="O8" t="n">
-        <v>3497.597282196052</v>
+        <v>2794.921510960849</v>
       </c>
       <c r="P8" t="n">
-        <v>3685.795861364857</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q8" t="n">
-        <v>3685.795861364857</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R8" t="n">
         <v>3685.795861364857</v>
       </c>
       <c r="S8" t="n">
-        <v>3656.273267129573</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T8" t="n">
-        <v>3434.066783076432</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U8" t="n">
-        <v>3177.006291335942</v>
+        <v>3428.735369624367</v>
       </c>
       <c r="V8" t="n">
-        <v>2827.168736672423</v>
+        <v>3078.897814960848</v>
       </c>
       <c r="W8" t="n">
-        <v>2443.408435807592</v>
+        <v>3078.897814960848</v>
       </c>
       <c r="X8" t="n">
-        <v>2443.408435807592</v>
+        <v>2853.533026494321</v>
       </c>
       <c r="Y8" t="n">
-        <v>2443.408435807592</v>
+        <v>2853.533026494321</v>
       </c>
     </row>
     <row r="9">
@@ -4886,25 +4886,25 @@
         <v>266.5287747899304</v>
       </c>
       <c r="K9" t="n">
-        <v>266.5287747899304</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="L9" t="n">
-        <v>927.6169467092186</v>
+        <v>1383.423202974517</v>
       </c>
       <c r="M9" t="n">
-        <v>927.6169467092186</v>
+        <v>1383.423202974517</v>
       </c>
       <c r="N9" t="n">
-        <v>1416.248022531903</v>
+        <v>1383.423202974517</v>
       </c>
       <c r="O9" t="n">
-        <v>2120.205113077797</v>
+        <v>1383.423202974517</v>
       </c>
       <c r="P9" t="n">
-        <v>2120.205113077797</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="Q9" t="n">
-        <v>2120.205113077797</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R9" t="n">
         <v>2120.205113077797</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1163.049767528434</v>
+        <v>412.0596807400372</v>
       </c>
       <c r="C10" t="n">
-        <v>991.9563950901502</v>
+        <v>240.9663083017537</v>
       </c>
       <c r="D10" t="n">
-        <v>832.4617504130601</v>
+        <v>240.9663083017537</v>
       </c>
       <c r="E10" t="n">
-        <v>671.5509352813797</v>
+        <v>240.9663083017537</v>
       </c>
       <c r="F10" t="n">
-        <v>506.9198093919709</v>
+        <v>240.9663083017537</v>
       </c>
       <c r="G10" t="n">
-        <v>339.6694183175143</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H10" t="n">
-        <v>190.061963122971</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I10" t="n">
         <v>73.71591722729714</v>
@@ -4986,28 +4986,28 @@
         <v>1603.114813848147</v>
       </c>
       <c r="R10" t="n">
-        <v>1517.842095523547</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S10" t="n">
-        <v>1517.842095523547</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T10" t="n">
-        <v>1517.842095523547</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U10" t="n">
-        <v>1517.842095523547</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V10" t="n">
-        <v>1517.842095523547</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W10" t="n">
-        <v>1517.842095523547</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="X10" t="n">
-        <v>1517.842095523547</v>
+        <v>568.5383201701791</v>
       </c>
       <c r="Y10" t="n">
-        <v>1350.749473922478</v>
+        <v>412.0596807400372</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2090.234309952579</v>
+        <v>2133.683423745449</v>
       </c>
       <c r="C11" t="n">
-        <v>1680.109719265849</v>
+        <v>1723.558833058719</v>
       </c>
       <c r="D11" t="n">
-        <v>1275.645789358909</v>
+        <v>1628.723326236163</v>
       </c>
       <c r="E11" t="n">
-        <v>861.3055738758062</v>
+        <v>1214.38311075306</v>
       </c>
       <c r="F11" t="n">
-        <v>440.2751618294938</v>
+        <v>793.352698706747</v>
       </c>
       <c r="G11" t="n">
-        <v>73.71591722729714</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="H11" t="n">
         <v>73.71591722729714</v>
@@ -5041,52 +5041,52 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J11" t="n">
-        <v>73.71591722729714</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K11" t="n">
-        <v>73.71591722729714</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="L11" t="n">
-        <v>786.3073170395352</v>
+        <v>621.7910469133716</v>
       </c>
       <c r="M11" t="n">
-        <v>1562.625908031289</v>
+        <v>1398.109637905126</v>
       </c>
       <c r="N11" t="n">
-        <v>2315.806924669907</v>
+        <v>2151.290654543744</v>
       </c>
       <c r="O11" t="n">
-        <v>2959.437781087012</v>
+        <v>2794.921510960849</v>
       </c>
       <c r="P11" t="n">
-        <v>3488.594479006164</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q11" t="n">
-        <v>3685.795861364857</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R11" t="n">
         <v>3685.795861364857</v>
       </c>
       <c r="S11" t="n">
-        <v>3685.795861364857</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T11" t="n">
-        <v>3685.795861364857</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U11" t="n">
-        <v>3685.795861364857</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="V11" t="n">
-        <v>3685.795861364857</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="W11" t="n">
-        <v>3302.035560500025</v>
+        <v>2944.548001240985</v>
       </c>
       <c r="X11" t="n">
-        <v>2901.392162668978</v>
+        <v>2543.904603409938</v>
       </c>
       <c r="Y11" t="n">
-        <v>2500.455489617068</v>
+        <v>2543.904603409938</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J12" t="n">
-        <v>73.71591722729714</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K12" t="n">
-        <v>529.5221734925958</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="L12" t="n">
-        <v>529.5221734925958</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="M12" t="n">
-        <v>1372.499254187162</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="N12" t="n">
-        <v>1416.248022531903</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="O12" t="n">
-        <v>2120.205113077797</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="P12" t="n">
-        <v>2120.205113077797</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="Q12" t="n">
-        <v>2120.205113077797</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R12" t="n">
         <v>2120.205113077797</v>
@@ -5223,28 +5223,28 @@
         <v>1603.114813848147</v>
       </c>
       <c r="R13" t="n">
-        <v>1517.842095523547</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S13" t="n">
-        <v>1331.450327403457</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T13" t="n">
-        <v>1091.901588380159</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U13" t="n">
-        <v>809.1034409262836</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V13" t="n">
-        <v>535.2176958658056</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W13" t="n">
-        <v>256.1480313746799</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X13" t="n">
-        <v>73.71591722729714</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y13" t="n">
-        <v>73.71591722729714</v>
+        <v>261.4156236213415</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1723.675065350382</v>
+        <v>1624.507701439789</v>
       </c>
       <c r="C14" t="n">
-        <v>1313.550474663652</v>
+        <v>1214.38311075306</v>
       </c>
       <c r="D14" t="n">
-        <v>909.0865447567129</v>
+        <v>1214.38311075306</v>
       </c>
       <c r="E14" t="n">
-        <v>494.7463292736096</v>
+        <v>1214.38311075306</v>
       </c>
       <c r="F14" t="n">
-        <v>73.71591722729714</v>
+        <v>793.352698706747</v>
       </c>
       <c r="G14" t="n">
-        <v>73.71591722729714</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="H14" t="n">
         <v>73.71591722729714</v>
@@ -5305,25 +5305,25 @@
         <v>3685.795861364857</v>
       </c>
       <c r="S14" t="n">
-        <v>3685.795861364857</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T14" t="n">
-        <v>3669.07417142618</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U14" t="n">
-        <v>3669.07417142618</v>
+        <v>3071.247810365327</v>
       </c>
       <c r="V14" t="n">
-        <v>3319.236616762661</v>
+        <v>3071.247810365327</v>
       </c>
       <c r="W14" t="n">
-        <v>2935.476315897829</v>
+        <v>2687.487509500495</v>
       </c>
       <c r="X14" t="n">
-        <v>2534.832918066782</v>
+        <v>2286.844111669448</v>
       </c>
       <c r="Y14" t="n">
-        <v>2133.896245014872</v>
+        <v>1885.907438617538</v>
       </c>
     </row>
     <row r="15">
@@ -5360,25 +5360,25 @@
         <v>73.71591722729714</v>
       </c>
       <c r="K15" t="n">
-        <v>73.71591722729714</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="L15" t="n">
-        <v>734.8040891465854</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="M15" t="n">
-        <v>734.8040891465854</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="N15" t="n">
-        <v>1608.462181258203</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="O15" t="n">
-        <v>2120.205113077797</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="P15" t="n">
-        <v>2120.205113077797</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="Q15" t="n">
-        <v>2120.205113077797</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R15" t="n">
         <v>2120.205113077797</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1163.049767528434</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C16" t="n">
-        <v>991.9563950901502</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D16" t="n">
-        <v>832.4617504130601</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E16" t="n">
-        <v>671.5509352813797</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F16" t="n">
-        <v>506.9198093919709</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G16" t="n">
-        <v>339.6694183175143</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H16" t="n">
-        <v>190.061963122971</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I16" t="n">
         <v>73.71591722729714</v>
@@ -5460,28 +5460,28 @@
         <v>1603.114813848147</v>
       </c>
       <c r="R16" t="n">
-        <v>1517.842095523547</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S16" t="n">
-        <v>1517.842095523547</v>
+        <v>1416.723045728058</v>
       </c>
       <c r="T16" t="n">
-        <v>1517.842095523547</v>
+        <v>1177.17430670476</v>
       </c>
       <c r="U16" t="n">
-        <v>1517.842095523547</v>
+        <v>894.3761592508838</v>
       </c>
       <c r="V16" t="n">
-        <v>1517.842095523547</v>
+        <v>620.4904141904058</v>
       </c>
       <c r="W16" t="n">
-        <v>1517.842095523547</v>
+        <v>341.4207496992801</v>
       </c>
       <c r="X16" t="n">
-        <v>1517.842095523547</v>
+        <v>103.0768875589635</v>
       </c>
       <c r="Y16" t="n">
-        <v>1350.749473922478</v>
+        <v>103.0768875589635</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C17" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D17" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E17" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F17" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G17" t="n">
-        <v>452.2785793327262</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H17" t="n">
-        <v>141.3700819604442</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4526.90380932524</v>
+        <v>4630.445217422097</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="18">
@@ -5597,22 +5597,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M18" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N18" t="n">
-        <v>874.0699105066985</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O18" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q18" t="n">
         <v>2139.732893541123</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>213.9746261193704</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>213.9746261193704</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>213.9746261193704</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>213.9746261193704</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
         <v>93.2436976906228</v>
@@ -5700,25 +5700,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1196.702087168085</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>913.9039397142094</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V19" t="n">
-        <v>640.0181946537314</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W19" t="n">
-        <v>640.0181946537314</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X19" t="n">
-        <v>401.6743325134148</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y19" t="n">
-        <v>401.6743325134148</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C20" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D20" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E20" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F20" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G20" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H20" t="n">
         <v>179.5954603735497</v>
@@ -5752,10 +5752,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="21">
@@ -5834,25 +5834,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>286.056555253256</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M21" t="n">
-        <v>1129.033635947823</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N21" t="n">
-        <v>2002.69172805944</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O21" t="n">
-        <v>2110.173374178493</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="P21" t="n">
-        <v>2110.173374178493</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q21" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3458.450207833939</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>3287.356835395656</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>4662.18488453114</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V22" t="n">
-        <v>4388.299139470661</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W22" t="n">
-        <v>4109.229474979536</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X22" t="n">
-        <v>3870.885612839219</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y22" t="n">
-        <v>3646.149914227984</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862142</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E23" t="n">
-        <v>873.3089913790386</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F23" t="n">
-        <v>501.9719817977906</v>
+        <v>809.7661385917668</v>
       </c>
       <c r="G23" t="n">
-        <v>93.2436976906228</v>
+        <v>401.0378544845989</v>
       </c>
       <c r="H23" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C24" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D24" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E24" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F24" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G24" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H24" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I24" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K24" t="n">
-        <v>2615.69568868064</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L24" t="n">
-        <v>2615.69568868064</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M24" t="n">
-        <v>3458.672769375206</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N24" t="n">
-        <v>4332.330861486824</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O24" t="n">
-        <v>4662.18488453114</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="P24" t="n">
-        <v>4662.18488453114</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S24" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T24" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U24" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V24" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W24" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X24" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y24" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>4150.971659063151</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>3868.173511609275</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V25" t="n">
-        <v>3730.621005964372</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W25" t="n">
-        <v>3730.621005964372</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X25" t="n">
-        <v>3730.621005964372</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y25" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2462.839627293158</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C26" t="n">
-        <v>2052.715036606428</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D26" t="n">
-        <v>1648.251106699488</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E26" t="n">
-        <v>1233.910891216385</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F26" t="n">
-        <v>812.8804791700727</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G26" t="n">
-        <v>404.1521950629048</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H26" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K26" t="n">
         <v>885.5886702674165</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4408.238733368956</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V26" t="n">
-        <v>4058.401178705436</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W26" t="n">
-        <v>3674.640877840605</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X26" t="n">
-        <v>3273.997480009557</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y26" t="n">
-        <v>2873.060806957647</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O27" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.732893541123</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1066.231502096085</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>895.138129657802</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>735.6434849807119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>574.7326698490315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
         <v>93.2436976906228</v>
@@ -6414,22 +6414,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U28" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V28" t="n">
-        <v>1622.642594311473</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W28" t="n">
-        <v>1622.642594311473</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X28" t="n">
-        <v>1478.666907101365</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y28" t="n">
-        <v>1253.93120849013</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D29" t="n">
-        <v>1287.649206862142</v>
+        <v>1422.930282068041</v>
       </c>
       <c r="E29" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F29" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G29" t="n">
-        <v>93.24369769062287</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H29" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I29" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K29" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L29" t="n">
         <v>1598.180070079655</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N30" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O30" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P30" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q30" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>4475.79311641105</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>4236.244377387751</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U31" t="n">
-        <v>3953.446229933875</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V31" t="n">
-        <v>3679.560484873397</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W31" t="n">
-        <v>3400.490820382272</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X31" t="n">
-        <v>3162.146958241955</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C32" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D32" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E32" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F32" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G32" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H32" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6733,19 +6733,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U32" t="n">
-        <v>4304.697325272099</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="V32" t="n">
-        <v>4144.752941388363</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W32" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X32" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y32" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>354.5244442569915</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>354.5244442569915</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M33" t="n">
-        <v>354.5244442569915</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N33" t="n">
-        <v>1228.182536368609</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O33" t="n">
-        <v>1228.182536368609</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P33" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>423.8317148059963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>252.7383423677128</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
         <v>93.2436976906228</v>
@@ -6888,22 +6888,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U34" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V34" t="n">
-        <v>1353.680646442718</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W34" t="n">
-        <v>1074.610981951593</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X34" t="n">
-        <v>836.267119811276</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y34" t="n">
-        <v>611.5314212000407</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2549.191389976085</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C35" t="n">
-        <v>2139.066799289355</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D35" t="n">
-        <v>1734.602869382415</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E35" t="n">
-        <v>1320.262653899312</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F35" t="n">
-        <v>899.2322418529996</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G35" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H35" t="n">
         <v>179.5954603735497</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U35" t="n">
-        <v>4405.12439279065</v>
+        <v>4183.681998679601</v>
       </c>
       <c r="V35" t="n">
-        <v>4144.752941388363</v>
+        <v>3833.844444016082</v>
       </c>
       <c r="W35" t="n">
-        <v>3760.992640523532</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X35" t="n">
-        <v>3360.349242692484</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y35" t="n">
-        <v>2959.412569640574</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C36" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D36" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E36" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F36" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G36" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H36" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I36" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>2615.69568868064</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>2615.69568868064</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M36" t="n">
-        <v>3458.672769375206</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N36" t="n">
-        <v>4332.330861486824</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O36" t="n">
-        <v>4662.18488453114</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P36" t="n">
-        <v>4662.18488453114</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R36" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S36" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T36" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U36" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V36" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W36" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X36" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y36" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="37">
@@ -7122,25 +7122,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>1622.642594311473</v>
+        <v>1579.776521841699</v>
       </c>
       <c r="T37" t="n">
-        <v>1392.076815447654</v>
+        <v>1579.776521841699</v>
       </c>
       <c r="U37" t="n">
-        <v>1109.278667993779</v>
+        <v>1296.978374387823</v>
       </c>
       <c r="V37" t="n">
-        <v>835.3929229333004</v>
+        <v>1023.092629327345</v>
       </c>
       <c r="W37" t="n">
-        <v>556.3232584421747</v>
+        <v>744.0229648362191</v>
       </c>
       <c r="X37" t="n">
-        <v>317.9793963018581</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y37" t="n">
-        <v>93.2436976906228</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2462.839627293158</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C38" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D38" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E38" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F38" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G38" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H38" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7204,22 +7204,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X38" t="n">
-        <v>3273.997480009557</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y38" t="n">
-        <v>2873.060806957647</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C39" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D39" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E39" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F39" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G39" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H39" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I39" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>2615.69568868064</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>3276.783860599928</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M39" t="n">
-        <v>3438.682327735538</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N39" t="n">
-        <v>4312.340419847156</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O39" t="n">
-        <v>4312.340419847156</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P39" t="n">
-        <v>4312.340419847156</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q39" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R39" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S39" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T39" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U39" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V39" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W39" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X39" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y39" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>798.0226983151792</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C40" t="n">
-        <v>798.0226983151792</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D40" t="n">
-        <v>798.0226983151792</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7356,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>1350.978107866783</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>1350.978107866783</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V40" t="n">
-        <v>1077.092362806305</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W40" t="n">
-        <v>798.0226983151792</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X40" t="n">
-        <v>798.0226983151792</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y40" t="n">
-        <v>798.0226983151792</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2132.40334945755</v>
+        <v>1901.95057210075</v>
       </c>
       <c r="C41" t="n">
-        <v>1722.27875877082</v>
+        <v>1491.82598141402</v>
       </c>
       <c r="D41" t="n">
-        <v>1317.814828863881</v>
+        <v>1087.36205150708</v>
       </c>
       <c r="E41" t="n">
-        <v>903.4746133807774</v>
+        <v>673.0218360239769</v>
       </c>
       <c r="F41" t="n">
         <v>482.444201334465</v>
@@ -7426,13 +7426,13 @@
         <v>3108.151897246701</v>
       </c>
       <c r="O41" t="n">
-        <v>3645.239215675292</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="P41" t="n">
-        <v>3645.239215675292</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q41" t="n">
-        <v>3645.239215675292</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R41" t="n">
         <v>3685.795861364857</v>
@@ -7441,22 +7441,22 @@
         <v>3685.795861364857</v>
       </c>
       <c r="T41" t="n">
-        <v>3685.795861364857</v>
+        <v>3463.589377311716</v>
       </c>
       <c r="U41" t="n">
-        <v>3685.795861364857</v>
+        <v>3463.589377311716</v>
       </c>
       <c r="V41" t="n">
-        <v>3685.795861364857</v>
+        <v>3113.751822648197</v>
       </c>
       <c r="W41" t="n">
-        <v>3344.204600004997</v>
+        <v>3113.751822648197</v>
       </c>
       <c r="X41" t="n">
-        <v>2943.561202173949</v>
+        <v>2713.108424817149</v>
       </c>
       <c r="Y41" t="n">
-        <v>2542.624529122039</v>
+        <v>2312.171751765239</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J42" t="n">
-        <v>73.71591722729714</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K42" t="n">
-        <v>73.71591722729714</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="L42" t="n">
-        <v>73.71591722729714</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="M42" t="n">
-        <v>73.71591722729714</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="N42" t="n">
-        <v>475.1381459967595</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="O42" t="n">
-        <v>1179.095236542654</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="P42" t="n">
-        <v>1740.801129031184</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="Q42" t="n">
-        <v>2090.645593715167</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R42" t="n">
         <v>2120.205113077797</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3174.582635896869</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C43" t="n">
-        <v>3003.489263458586</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D43" t="n">
-        <v>2843.994618781496</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E43" t="n">
-        <v>2683.083803649815</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F43" t="n">
-        <v>2589.600856908682</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G43" t="n">
-        <v>2422.350465834225</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H43" t="n">
-        <v>2272.743010639681</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I43" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J43" t="n">
-        <v>2170.479514149218</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K43" t="n">
-        <v>2325.031841871456</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L43" t="n">
-        <v>2584.928942151516</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M43" t="n">
-        <v>2874.19299859201</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N43" t="n">
-        <v>3155.03178098626</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O43" t="n">
-        <v>3414.592391312734</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P43" t="n">
-        <v>3620.267831562346</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q43" t="n">
-        <v>3685.795861364857</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R43" t="n">
-        <v>3600.523143040257</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S43" t="n">
-        <v>3414.131374920167</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T43" t="n">
-        <v>3174.582635896869</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U43" t="n">
-        <v>3174.582635896869</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V43" t="n">
-        <v>3174.582635896869</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W43" t="n">
-        <v>3174.582635896869</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X43" t="n">
-        <v>3174.582635896869</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y43" t="n">
-        <v>3174.582635896869</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2132.40334945755</v>
+        <v>2090.234309952579</v>
       </c>
       <c r="C44" t="n">
-        <v>1722.27875877082</v>
+        <v>1680.109719265849</v>
       </c>
       <c r="D44" t="n">
-        <v>1317.814828863881</v>
+        <v>1275.645789358909</v>
       </c>
       <c r="E44" t="n">
-        <v>903.4746133807774</v>
+        <v>1214.38311075306</v>
       </c>
       <c r="F44" t="n">
-        <v>482.444201334465</v>
+        <v>793.352698706747</v>
       </c>
       <c r="G44" t="n">
-        <v>73.71591722729714</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="H44" t="n">
         <v>73.71591722729714</v>
@@ -7648,22 +7648,22 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J44" t="n">
-        <v>261.9144963961027</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K44" t="n">
-        <v>800.0739975051422</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L44" t="n">
-        <v>1512.66539731738</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M44" t="n">
-        <v>2288.983988309134</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N44" t="n">
-        <v>3042.165004947752</v>
+        <v>2853.966425778947</v>
       </c>
       <c r="O44" t="n">
-        <v>3685.795861364857</v>
+        <v>3497.597282196052</v>
       </c>
       <c r="P44" t="n">
         <v>3685.795861364857</v>
@@ -7687,13 +7687,13 @@
         <v>3685.795861364857</v>
       </c>
       <c r="W44" t="n">
-        <v>3344.204600004997</v>
+        <v>3302.035560500025</v>
       </c>
       <c r="X44" t="n">
-        <v>2943.561202173949</v>
+        <v>2901.392162668978</v>
       </c>
       <c r="Y44" t="n">
-        <v>2542.624529122039</v>
+        <v>2500.455489617068</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J45" t="n">
-        <v>73.71591722729714</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K45" t="n">
-        <v>529.5221734925958</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="L45" t="n">
-        <v>529.5221734925958</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="M45" t="n">
-        <v>529.5221734925958</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="N45" t="n">
-        <v>1403.180265604214</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="O45" t="n">
-        <v>1403.180265604214</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="P45" t="n">
-        <v>1964.886158092744</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="Q45" t="n">
         <v>2120.205113077797</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>73.71591722729714</v>
+        <v>399.3801371509475</v>
       </c>
       <c r="C46" t="n">
-        <v>73.71591722729714</v>
+        <v>228.286764712664</v>
       </c>
       <c r="D46" t="n">
-        <v>73.71591722729714</v>
+        <v>228.286764712664</v>
       </c>
       <c r="E46" t="n">
-        <v>73.71591722729714</v>
+        <v>228.286764712664</v>
       </c>
       <c r="F46" t="n">
         <v>73.71591722729714</v>
@@ -7836,22 +7836,22 @@
         <v>1603.114813848147</v>
       </c>
       <c r="T46" t="n">
-        <v>1372.549034984329</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="U46" t="n">
-        <v>1089.750887530453</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="V46" t="n">
-        <v>815.8651424699747</v>
+        <v>1329.229068787669</v>
       </c>
       <c r="W46" t="n">
-        <v>536.795477978849</v>
+        <v>1050.159404296544</v>
       </c>
       <c r="X46" t="n">
-        <v>298.4516158385325</v>
+        <v>811.8155421562271</v>
       </c>
       <c r="Y46" t="n">
-        <v>73.71591722729714</v>
+        <v>587.0798435449918</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>392.3436386874106</v>
+        <v>649.0966401699908</v>
       </c>
       <c r="M2" t="n">
         <v>877.4504173780091</v>
@@ -8057,25 +8057,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>207.3373116149458</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N3" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>126.9109628421569</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P3" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>124.3056865520957</v>
       </c>
       <c r="K5" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L5" t="n">
-        <v>815.2746908024792</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
         <v>877.4504173780091</v>
@@ -8233,10 +8233,10 @@
         <v>743.321953824879</v>
       </c>
       <c r="P5" t="n">
-        <v>283.7489381988693</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>87.31214281472352</v>
@@ -8300,22 +8300,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>704.4036376163069</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>488.5284925170756</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P6" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
         <v>59.00019910540541</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>815.2746908024792</v>
+        <v>392.3436386874106</v>
       </c>
       <c r="M8" t="n">
         <v>877.4504173780091</v>
@@ -8470,13 +8470,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>283.7489381988693</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
         <v>723.8803540323523</v>
@@ -8543,19 +8543,19 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>546.7601366489866</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>415.2474391004466</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L11" t="n">
-        <v>815.2746908024792</v>
+        <v>392.3436386874106</v>
       </c>
       <c r="M11" t="n">
         <v>877.4504173780091</v>
@@ -8710,10 +8710,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>289.2271199129839</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,31 +8768,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>97.38406848944746</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,28 +9008,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>712.2489309321197</v>
       </c>
       <c r="M15" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>574.6635313430244</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,25 +9245,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>841.9067396726143</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>75.97815626606008</v>
       </c>
       <c r="P18" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
@@ -9482,28 +9482,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>166.3187983121741</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>445.1055394667395</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9719,28 +9719,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629454</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>610.0079012849245</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,28 +9953,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
         <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>387.4455168657486</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10190,13 +10190,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>712.2489309321196</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
@@ -10214,7 +10214,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,28 +10427,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>319.7457288112504</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>57.56428373841742</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
         <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10664,28 +10664,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>390.9373608629454</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10901,25 +10901,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>221.0980889259029</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>57.751479</v>
+        <v>548.9835243030855</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
         <v>410.0708656603775</v>
@@ -11074,7 +11074,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
-        <v>635.7022184829458</v>
+        <v>676.6685272602841</v>
       </c>
       <c r="P41" t="n">
         <v>93.64936328088416</v>
@@ -11083,7 +11083,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,22 +11138,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>458.6703921507827</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
         <v>621.6393243851574</v>
@@ -11162,7 +11162,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>263.4231662512933</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K44" t="n">
         <v>632.7318453389136</v>
@@ -11314,7 +11314,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>283.7489381988693</v>
       </c>
       <c r="Q44" t="n">
         <v>90.03380439915205</v>
@@ -11375,19 +11375,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
         <v>57.751479</v>
@@ -11396,7 +11396,7 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>213.5804518230746</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -22555,19 +22555,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>246.6947712720808</v>
       </c>
       <c r="F2" t="n">
-        <v>395.6600327763717</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22603,13 +22603,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22704,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22758,22 +22758,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="5">
@@ -22792,13 +22792,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2.797283825083696</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -22834,10 +22834,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>102.1229455907345</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
@@ -22852,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22989,13 +22989,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>8.893130557884234</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23007,10 +23007,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>55.3526305130045</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23023,7 +23023,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23071,10 +23071,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>104.7008961609094</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -23083,10 +23083,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>173.5258232708757</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -23178,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>57.06664624006473</v>
+        <v>67.57448858928248</v>
       </c>
     </row>
     <row r="11">
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>306.5321388535396</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>41.74734910992152</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>254.489886823085</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>169.3824387139007</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.3526305130045</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>194.7158398879882</v>
       </c>
     </row>
     <row r="14">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>147.3332280618734</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.4299461733198</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>156.7553487017543</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>57.06664624006473</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>37.84312462897442</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>102.5059940158878</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
@@ -23901,7 +23901,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>43.46119548605458</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>165.577887163712</v>
@@ -23940,7 +23940,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="20">
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>54.06597461814459</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>4.8745592198064</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
@@ -24180,10 +24180,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="23">
@@ -24217,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>88.57144222862041</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>134.9699070214199</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>8.893130557884376</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>134.6847134965115</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>3.083197172522915</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
         <v>115.1825854367171</v>
@@ -24654,22 +24654,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>93.42449318090684</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="29">
@@ -24688,16 +24688,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>223.0676163851326</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>49.19646844041387</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>193.420980996774</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="32">
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,10 +24973,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>10.656701722089</v>
       </c>
       <c r="V32" t="n">
-        <v>187.9942390719855</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
@@ -25128,13 +25128,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>4.874559219806031</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="35">
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>134.6847134965117</v>
       </c>
       <c r="V35" t="n">
-        <v>88.57144222862024</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
@@ -25362,10 +25362,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>142.0904386938123</v>
       </c>
       <c r="T37" t="n">
-        <v>8.893130557884461</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,10 +25444,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>187.994239071985</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>53.42716423559462</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="41">
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>228.1482495832325</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25681,16 +25681,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>41.74734910992146</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>70.43669735679232</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="44">
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>349.5467615084808</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25927,7 +25927,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>41.74734910992146</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
@@ -26034,7 +26034,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>9.959675620001519</v>
       </c>
       <c r="G46" t="n">
         <v>165.577887163712</v>
@@ -26076,10 +26076,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>8.893130557884234</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>643082.9842095751</v>
+        <v>643082.9842095752</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>643082.984209575</v>
+        <v>643082.9842095752</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>643082.9842095751</v>
+        <v>643082.9842095752</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>643082.984209575</v>
+        <v>643082.9842095752</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>643082.984209575</v>
+        <v>643082.9842095751</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>739338.5395049829</v>
+        <v>739338.539504983</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>739338.5395049826</v>
+        <v>739338.539504983</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>739338.5395049828</v>
+        <v>739338.5395049829</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>739338.539504983</v>
+        <v>739338.5395049829</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>739338.5395049829</v>
+        <v>739338.539504983</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>643082.984209575</v>
+        <v>643082.9842095752</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>643082.9842095752</v>
+        <v>643082.9842095751</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>277141.0629351231</v>
+      </c>
+      <c r="C2" t="n">
         <v>277141.0629351232</v>
-      </c>
-      <c r="C2" t="n">
-        <v>277141.0629351233</v>
       </c>
       <c r="D2" t="n">
         <v>277141.0629351232</v>
@@ -26325,13 +26325,13 @@
         <v>277141.0629351232</v>
       </c>
       <c r="F2" t="n">
-        <v>277141.0629351232</v>
+        <v>277141.0629351233</v>
       </c>
       <c r="G2" t="n">
         <v>318613.5342886032</v>
       </c>
       <c r="H2" t="n">
-        <v>318613.5342886033</v>
+        <v>318613.5342886032</v>
       </c>
       <c r="I2" t="n">
         <v>318613.5342886032</v>
@@ -26355,7 +26355,7 @@
         <v>277141.0629351232</v>
       </c>
       <c r="P2" t="n">
-        <v>277141.0629351232</v>
+        <v>277141.0629351233</v>
       </c>
     </row>
     <row r="3">
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>39034.29883442246</v>
+      </c>
+      <c r="C4" t="n">
         <v>39034.29883442245</v>
-      </c>
-      <c r="C4" t="n">
-        <v>39034.29883442246</v>
       </c>
       <c r="D4" t="n">
         <v>39034.29883442245</v>
@@ -26429,37 +26429,37 @@
         <v>39034.29883442246</v>
       </c>
       <c r="F4" t="n">
-        <v>39034.29883442246</v>
+        <v>39034.29883442245</v>
       </c>
       <c r="G4" t="n">
         <v>44919.86535090264</v>
       </c>
       <c r="H4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="I4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="J4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090263</v>
       </c>
       <c r="K4" t="n">
-        <v>44919.86535090263</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="L4" t="n">
         <v>44919.86535090264</v>
       </c>
       <c r="M4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="N4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="O4" t="n">
+        <v>39034.29883442246</v>
+      </c>
+      <c r="P4" t="n">
         <v>39034.29883442245</v>
-      </c>
-      <c r="P4" t="n">
-        <v>39034.29883442246</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-160343.6746040889</v>
+        <v>-160712.7664301629</v>
       </c>
       <c r="C6" t="n">
-        <v>148455.067007955</v>
+        <v>148085.9751818809</v>
       </c>
       <c r="D6" t="n">
-        <v>148455.0670079549</v>
+        <v>148085.9751818809</v>
       </c>
       <c r="E6" t="n">
-        <v>182082.6670079549</v>
+        <v>181713.5751818809</v>
       </c>
       <c r="F6" t="n">
-        <v>182082.6670079549</v>
+        <v>181713.575181881</v>
       </c>
       <c r="G6" t="n">
-        <v>135925.0623391946</v>
+        <v>135744.4817465456</v>
       </c>
       <c r="H6" t="n">
-        <v>202828.4586928274</v>
+        <v>202647.8781001782</v>
       </c>
       <c r="I6" t="n">
-        <v>202828.4586928272</v>
+        <v>202647.8781001782</v>
       </c>
       <c r="J6" t="n">
-        <v>-38263.13439490937</v>
+        <v>-38443.71498755855</v>
       </c>
       <c r="K6" t="n">
-        <v>202828.4586928273</v>
+        <v>202647.8781001781</v>
       </c>
       <c r="L6" t="n">
-        <v>202828.4586928272</v>
+        <v>202647.8781001781</v>
       </c>
       <c r="M6" t="n">
-        <v>202828.4586928273</v>
+        <v>202647.8781001781</v>
       </c>
       <c r="N6" t="n">
-        <v>202828.4586928272</v>
+        <v>202647.8781001782</v>
       </c>
       <c r="O6" t="n">
-        <v>182082.6670079549</v>
+        <v>181713.5751818809</v>
       </c>
       <c r="P6" t="n">
-        <v>182082.6670079549</v>
+        <v>181713.575181881</v>
       </c>
     </row>
   </sheetData>
@@ -34698,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>296.8582406245658</v>
+        <v>553.6112421071459</v>
       </c>
       <c r="M2" t="n">
         <v>784.1601929209636</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>151.2227878040968</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N3" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>69.15948384215687</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P3" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>50.98209521878771</v>
       </c>
       <c r="K5" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L5" t="n">
-        <v>719.7892927396343</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>784.1601929209636</v>
@@ -34953,10 +34953,10 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P5" t="n">
-        <v>190.0995749179851</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35020,22 +35020,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>648.2891138054579</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>435.3350991233256</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P6" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>719.7892927396343</v>
+        <v>296.8582406245658</v>
       </c>
       <c r="M8" t="n">
         <v>784.1601929209636</v>
@@ -35190,13 +35190,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>190.0995749179851</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
         <v>667.7658302215033</v>
@@ -35263,19 +35263,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>493.5667432552367</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>360.9878040976428</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>719.7892927396343</v>
+        <v>296.8582406245658</v>
       </c>
       <c r="M11" t="n">
         <v>784.1601929209636</v>
@@ -35430,10 +35430,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>199.1933155138319</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>44.19067509569746</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>667.7658302215033</v>
+        <v>656.1344071212707</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>516.9120523430244</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>788.7133462788644</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="P18" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36202,28 +36202,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>108.5673193121741</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>390.8459044639358</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629454</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>555.7482662821208</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>333.1858818629449</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>656.1344071212706</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>263.919946026635</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>333.1858818629454</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>163.5338051874855</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
         <v>353.3782471555388</v>
@@ -37794,7 +37794,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
-        <v>542.5124428571627</v>
+        <v>583.478751634501</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>405.4769987570327</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>567.3796893823536</v>
@@ -37882,7 +37882,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.0995749179854</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>543.5954556656965</v>
@@ -38034,7 +38034,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>190.0995749179851</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38095,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>156.8878333182359</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
